--- a/moto2020.xlsx
+++ b/moto2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="6" r:id="rId1"/>
@@ -169,7 +169,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,11 +549,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -572,9 +575,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -599,11 +599,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -612,6 +608,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -935,229 +943,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
         <v>110</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <f>I10*K2</f>
         <v>15.366540000000001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>I13</f>
         <v>3.5</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
         <v>3.6587000000000001</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <f>D2/K2</f>
         <v>30.065323748872551</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <f>D2*B10</f>
         <v>2530</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <f>E2*B10</f>
         <v>0</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <f>F2*B10</f>
         <v>353.43042000000003</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <f>G2*B10</f>
         <v>80.5</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <f>I11</f>
         <v>150</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <f>I12</f>
         <v>50</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <f>J2*B10</f>
         <v>0</v>
       </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="E3:K3" si="0">K2*22</f>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3" si="0">K2*22</f>
         <v>80.491399999999999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <f>D3/K3</f>
         <v>31.431929373821305</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <f>SUM(E3:J3)</f>
         <v>633.93042000000003</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="14"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="14"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>23</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <v>3.5</v>
       </c>
     </row>
@@ -1171,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1180,5155 +1188,5164 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="30" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="28" customWidth="1"/>
+    <col min="7" max="9" width="8.7109375" style="28" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37">
+      <c r="A3" s="42">
         <v>43752</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="43">
         <v>440</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="43">
         <v>52.99</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="44">
         <v>12.63</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29">
+      <c r="E3" s="26"/>
+      <c r="F3" s="27">
         <f t="shared" ref="F3:F5" si="0">IF(D3&lt;&gt;0,B3/D3,)</f>
         <v>34.837688044338876</v>
       </c>
-      <c r="G3" s="30">
-        <f t="shared" ref="G3:G6" si="1">B3/C3</f>
+      <c r="G3" s="28">
+        <f t="shared" ref="G3:G5" si="1">B3/C3</f>
         <v>8.3034534817890169</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="38">
-        <f t="shared" ref="I3:I6" si="2">C3/D3</f>
+      <c r="H3" s="26"/>
+      <c r="I3" s="35">
+        <f t="shared" ref="I3:I5" si="2">C3/D3</f>
         <v>4.1955661124307202</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="45">
         <v>43756</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="46">
         <v>450</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="46">
         <v>54</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="46">
         <v>12.86</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <f t="shared" si="0"/>
         <v>34.992223950233281</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="28">
         <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="35">
         <f t="shared" si="2"/>
         <v>4.1990668740279942</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+      <c r="A5" s="45">
         <v>43763</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="46">
         <v>466</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="46">
         <v>59</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="46">
         <v>14</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <f t="shared" si="0"/>
         <v>33.285714285714285</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="28">
         <f t="shared" si="1"/>
         <v>7.898305084745763</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="35">
         <f t="shared" si="2"/>
         <v>4.2142857142857144</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="F6" s="29">
+      <c r="A6" s="47">
+        <v>43859</v>
+      </c>
+      <c r="B6" s="24">
+        <v>434</v>
+      </c>
+      <c r="C6" s="24">
+        <v>57.18</v>
+      </c>
+      <c r="D6" s="24">
+        <v>12.71</v>
+      </c>
+      <c r="F6" s="27">
         <f>IF(D6&lt;&gt;0,B6/D6,)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
+        <v>34.146341463414629</v>
+      </c>
+      <c r="G6" s="28">
         <f>IF(C6&lt;&gt;0,B6/C6,)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
+        <v>7.5900664568030782</v>
+      </c>
+      <c r="I6" s="35">
         <f>IF( D6&lt;&gt;0,C6/D6,)</f>
-        <v>0</v>
+        <v>4.4988198269079458</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="F7" s="29">
+      <c r="A7" s="36"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="F7" s="27">
         <f t="shared" ref="F7:F70" si="3">IF(D7&lt;&gt;0,B7/D7,)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="28">
         <f t="shared" ref="G7:G70" si="4">IF(C7&lt;&gt;0,B7/C7,)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="35">
         <f t="shared" ref="I7:I70" si="5">IF( D7&lt;&gt;0,C7/D7,)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="F8" s="29">
+      <c r="A8" s="36"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="F8" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="F9" s="29">
+      <c r="A9" s="36"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="F9" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="F10" s="29">
+      <c r="A10" s="36"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="F10" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="F11" s="29">
+      <c r="A11" s="36"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="F11" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="F12" s="29">
+      <c r="A12" s="36"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="F12" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="F13" s="29">
+      <c r="A13" s="36"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="F13" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="F14" s="29">
+      <c r="A14" s="36"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="F14" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="F15" s="29">
+      <c r="A15" s="36"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="F15" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="F16" s="29">
+      <c r="A16" s="36"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="F16" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="F17" s="29">
+      <c r="A17" s="36"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="F17" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="F18" s="29">
+      <c r="A18" s="36"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="F18" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="F19" s="29">
+      <c r="A19" s="36"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="F19" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="F20" s="29">
+      <c r="A20" s="36"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="F20" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="F21" s="29">
+      <c r="A21" s="36"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="F21" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="F22" s="29">
+      <c r="A22" s="36"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="F22" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="F23" s="29">
+      <c r="A23" s="36"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="F23" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="F24" s="29">
+      <c r="A24" s="36"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="F24" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="F25" s="29">
+      <c r="A25" s="36"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="F25" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="F26" s="29">
+      <c r="A26" s="36"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="F26" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="F27" s="29">
+      <c r="A27" s="36"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="F27" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="F28" s="29">
+      <c r="A28" s="36"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="F28" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="F29" s="29">
+      <c r="A29" s="36"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="F29" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="F30" s="29">
+      <c r="A30" s="36"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="F30" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="F31" s="29">
+      <c r="A31" s="36"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="F31" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="F32" s="29">
+      <c r="A32" s="36"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="F32" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="F33" s="29">
+      <c r="A33" s="36"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="F33" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="F34" s="29">
+      <c r="A34" s="36"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="F34" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="F35" s="29">
+      <c r="A35" s="36"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="F35" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="F36" s="29">
+      <c r="A36" s="36"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="F36" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="F37" s="29">
+      <c r="A37" s="36"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="F37" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="F38" s="29">
+      <c r="A38" s="36"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="F38" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="F39" s="29">
+      <c r="A39" s="36"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="F39" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I39" s="38">
+      <c r="I39" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="F40" s="29">
+      <c r="A40" s="36"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="F40" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="F41" s="29">
+      <c r="A41" s="36"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="F41" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I41" s="38">
+      <c r="I41" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="F42" s="29">
+      <c r="A42" s="36"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="F42" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I42" s="38">
+      <c r="I42" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="F43" s="29">
+      <c r="A43" s="36"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="F43" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I43" s="38">
+      <c r="I43" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="F44" s="29">
+      <c r="A44" s="36"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="F44" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I44" s="38">
+      <c r="I44" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="F45" s="29">
+      <c r="A45" s="36"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="F45" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="F46" s="29">
+      <c r="A46" s="36"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="F46" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G46" s="30">
+      <c r="G46" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="F47" s="29">
+      <c r="A47" s="36"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="F47" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G47" s="30">
+      <c r="G47" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I47" s="38">
+      <c r="I47" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="F48" s="29">
+      <c r="A48" s="36"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="F48" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G48" s="30">
+      <c r="G48" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="F49" s="29">
+      <c r="A49" s="36"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="F49" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="F50" s="29">
+      <c r="A50" s="36"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="F50" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G50" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I50" s="38">
+      <c r="I50" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="F51" s="29">
+      <c r="A51" s="36"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="F51" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I51" s="38">
+      <c r="I51" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="F52" s="29">
+      <c r="A52" s="36"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="F52" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I52" s="38">
+      <c r="I52" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="F53" s="29">
+      <c r="A53" s="36"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="F53" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I53" s="38">
+      <c r="I53" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="F54" s="29">
+      <c r="A54" s="36"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="F54" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I54" s="38">
+      <c r="I54" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="F55" s="29">
+      <c r="A55" s="36"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="F55" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I55" s="38">
+      <c r="I55" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="F56" s="29">
+      <c r="A56" s="36"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="F56" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="F57" s="29">
+      <c r="A57" s="36"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="F57" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G57" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I57" s="38">
+      <c r="I57" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="F58" s="29">
+      <c r="A58" s="36"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="F58" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G58" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I58" s="38">
+      <c r="I58" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="F59" s="29">
+      <c r="A59" s="36"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="F59" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I59" s="38">
+      <c r="I59" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="F60" s="29">
+      <c r="A60" s="36"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="F60" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I60" s="38">
+      <c r="I60" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="F61" s="29">
+      <c r="A61" s="36"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="F61" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I61" s="38">
+      <c r="I61" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="F62" s="29">
+      <c r="A62" s="36"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="F62" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G62" s="30">
+      <c r="G62" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I62" s="38">
+      <c r="I62" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="F63" s="29">
+      <c r="A63" s="36"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="F63" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G63" s="30">
+      <c r="G63" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I63" s="38">
+      <c r="I63" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="F64" s="29">
+      <c r="A64" s="36"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="F64" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G64" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I64" s="38">
+      <c r="I64" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="F65" s="29">
+      <c r="A65" s="36"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="F65" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G65" s="30">
+      <c r="G65" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I65" s="38">
+      <c r="I65" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="F66" s="29">
+      <c r="A66" s="36"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="F66" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G66" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I66" s="38">
+      <c r="I66" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="F67" s="29">
+      <c r="A67" s="36"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="F67" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G67" s="30">
+      <c r="G67" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I67" s="38">
+      <c r="I67" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="F68" s="29">
+      <c r="A68" s="36"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="F68" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I68" s="38">
+      <c r="I68" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="F69" s="29">
+      <c r="A69" s="36"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="F69" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G69" s="30">
+      <c r="G69" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I69" s="38">
+      <c r="I69" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="F70" s="29">
+      <c r="A70" s="36"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="F70" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G70" s="30">
+      <c r="G70" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I70" s="38">
+      <c r="I70" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="F71" s="29">
+      <c r="A71" s="36"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="F71" s="27">
         <f t="shared" ref="F71:F134" si="6">IF(D71&lt;&gt;0,B71/D71,)</f>
         <v>0</v>
       </c>
-      <c r="G71" s="30">
+      <c r="G71" s="28">
         <f t="shared" ref="G71:G134" si="7">IF(C71&lt;&gt;0,B71/C71,)</f>
         <v>0</v>
       </c>
-      <c r="I71" s="38">
+      <c r="I71" s="35">
         <f t="shared" ref="I71:I134" si="8">IF( D71&lt;&gt;0,C71/D71,)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="F72" s="29">
+      <c r="A72" s="36"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="F72" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G72" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I72" s="38">
+      <c r="I72" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="F73" s="29">
+      <c r="A73" s="36"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="F73" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G73" s="30">
+      <c r="G73" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I73" s="38">
+      <c r="I73" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="F74" s="29">
+      <c r="A74" s="36"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="F74" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G74" s="30">
+      <c r="G74" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I74" s="38">
+      <c r="I74" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="F75" s="29">
+      <c r="A75" s="36"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="F75" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G75" s="30">
+      <c r="G75" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I75" s="38">
+      <c r="I75" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="F76" s="29">
+      <c r="A76" s="36"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="F76" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G76" s="30">
+      <c r="G76" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I76" s="38">
+      <c r="I76" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="F77" s="29">
+      <c r="A77" s="36"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="F77" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G77" s="30">
+      <c r="G77" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I77" s="38">
+      <c r="I77" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="F78" s="29">
+      <c r="A78" s="36"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="F78" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G78" s="30">
+      <c r="G78" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I78" s="38">
+      <c r="I78" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="F79" s="29">
+      <c r="A79" s="36"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="F79" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G79" s="30">
+      <c r="G79" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I79" s="38">
+      <c r="I79" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="F80" s="29">
+      <c r="A80" s="36"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="F80" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G80" s="30">
+      <c r="G80" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I80" s="38">
+      <c r="I80" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="F81" s="29">
+      <c r="A81" s="36"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="F81" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G81" s="30">
+      <c r="G81" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I81" s="38">
+      <c r="I81" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="F82" s="29">
+      <c r="A82" s="36"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="F82" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G82" s="30">
+      <c r="G82" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I82" s="38">
+      <c r="I82" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="F83" s="29">
+      <c r="A83" s="36"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="F83" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G83" s="30">
+      <c r="G83" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I83" s="38">
+      <c r="I83" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="F84" s="29">
+      <c r="A84" s="36"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="F84" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G84" s="30">
+      <c r="G84" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I84" s="38">
+      <c r="I84" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="F85" s="29">
+      <c r="A85" s="36"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="F85" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G85" s="30">
+      <c r="G85" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I85" s="38">
+      <c r="I85" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="F86" s="29">
+      <c r="A86" s="36"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="F86" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G86" s="30">
+      <c r="G86" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I86" s="38">
+      <c r="I86" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="F87" s="29">
+      <c r="A87" s="36"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="F87" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G87" s="30">
+      <c r="G87" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I87" s="38">
+      <c r="I87" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="F88" s="29">
+      <c r="A88" s="36"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="F88" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G88" s="30">
+      <c r="G88" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I88" s="38">
+      <c r="I88" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="F89" s="29">
+      <c r="A89" s="36"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="F89" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G89" s="30">
+      <c r="G89" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I89" s="38">
+      <c r="I89" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="F90" s="29">
+      <c r="A90" s="36"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="F90" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G90" s="30">
+      <c r="G90" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I90" s="38">
+      <c r="I90" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="F91" s="29">
+      <c r="A91" s="36"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="F91" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G91" s="30">
+      <c r="G91" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I91" s="38">
+      <c r="I91" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="F92" s="29">
+      <c r="A92" s="36"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="F92" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G92" s="30">
+      <c r="G92" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I92" s="38">
+      <c r="I92" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="F93" s="29">
+      <c r="A93" s="36"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="F93" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G93" s="30">
+      <c r="G93" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I93" s="38">
+      <c r="I93" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="F94" s="29">
+      <c r="A94" s="36"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="F94" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G94" s="30">
+      <c r="G94" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I94" s="38">
+      <c r="I94" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="F95" s="29">
+      <c r="A95" s="36"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="F95" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G95" s="30">
+      <c r="G95" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I95" s="38">
+      <c r="I95" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="F96" s="29">
+      <c r="A96" s="36"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="F96" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G96" s="30">
+      <c r="G96" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I96" s="38">
+      <c r="I96" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="F97" s="29">
+      <c r="A97" s="36"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="F97" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G97" s="30">
+      <c r="G97" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I97" s="38">
+      <c r="I97" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="F98" s="29">
+      <c r="A98" s="36"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="F98" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G98" s="30">
+      <c r="G98" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I98" s="38">
+      <c r="I98" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="F99" s="29">
+      <c r="A99" s="36"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="F99" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G99" s="30">
+      <c r="G99" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I99" s="38">
+      <c r="I99" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="F100" s="29">
+      <c r="A100" s="36"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="F100" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G100" s="30">
+      <c r="G100" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I100" s="38">
+      <c r="I100" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="F101" s="29">
+      <c r="A101" s="36"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="F101" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G101" s="30">
+      <c r="G101" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I101" s="38">
+      <c r="I101" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="F102" s="29">
+      <c r="A102" s="36"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="F102" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G102" s="30">
+      <c r="G102" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I102" s="38">
+      <c r="I102" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="F103" s="29">
+      <c r="A103" s="36"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="F103" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G103" s="30">
+      <c r="G103" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I103" s="38">
+      <c r="I103" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="F104" s="29">
+      <c r="A104" s="36"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="F104" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G104" s="30">
+      <c r="G104" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I104" s="38">
+      <c r="I104" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="F105" s="29">
+      <c r="A105" s="36"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="F105" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G105" s="30">
+      <c r="G105" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I105" s="38">
+      <c r="I105" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="F106" s="29">
+      <c r="A106" s="36"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="F106" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G106" s="30">
+      <c r="G106" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I106" s="38">
+      <c r="I106" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="F107" s="29">
+      <c r="A107" s="36"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="F107" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G107" s="30">
+      <c r="G107" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I107" s="38">
+      <c r="I107" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="F108" s="29">
+      <c r="A108" s="36"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="F108" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G108" s="30">
+      <c r="G108" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I108" s="38">
+      <c r="I108" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="F109" s="29">
+      <c r="A109" s="36"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="F109" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G109" s="30">
+      <c r="G109" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I109" s="38">
+      <c r="I109" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="F110" s="29">
+      <c r="A110" s="36"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="F110" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G110" s="30">
+      <c r="G110" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I110" s="38">
+      <c r="I110" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="F111" s="29">
+      <c r="A111" s="36"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="F111" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G111" s="30">
+      <c r="G111" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I111" s="38">
+      <c r="I111" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="F112" s="29">
+      <c r="A112" s="36"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="F112" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G112" s="30">
+      <c r="G112" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I112" s="38">
+      <c r="I112" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="F113" s="29">
+      <c r="A113" s="36"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="F113" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G113" s="30">
+      <c r="G113" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I113" s="38">
+      <c r="I113" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="F114" s="29">
+      <c r="A114" s="36"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="F114" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G114" s="30">
+      <c r="G114" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I114" s="38">
+      <c r="I114" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="F115" s="29">
+      <c r="A115" s="36"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="F115" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G115" s="30">
+      <c r="G115" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I115" s="38">
+      <c r="I115" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="F116" s="29">
+      <c r="A116" s="36"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="F116" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G116" s="30">
+      <c r="G116" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I116" s="38">
+      <c r="I116" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="F117" s="29">
+      <c r="A117" s="36"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="F117" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G117" s="30">
+      <c r="G117" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I117" s="38">
+      <c r="I117" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="F118" s="29">
+      <c r="A118" s="36"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="F118" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G118" s="30">
+      <c r="G118" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I118" s="38">
+      <c r="I118" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="F119" s="29">
+      <c r="A119" s="36"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="F119" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G119" s="30">
+      <c r="G119" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I119" s="38">
+      <c r="I119" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="F120" s="29">
+      <c r="A120" s="36"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="F120" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G120" s="30">
+      <c r="G120" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I120" s="38">
+      <c r="I120" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
-      <c r="F121" s="29">
+      <c r="A121" s="36"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="F121" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G121" s="30">
+      <c r="G121" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I121" s="38">
+      <c r="I121" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="F122" s="29">
+      <c r="A122" s="36"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
+      <c r="F122" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G122" s="30">
+      <c r="G122" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I122" s="38">
+      <c r="I122" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="F123" s="29">
+      <c r="A123" s="36"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="F123" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G123" s="30">
+      <c r="G123" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I123" s="38">
+      <c r="I123" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="F124" s="29">
+      <c r="A124" s="36"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="F124" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G124" s="30">
+      <c r="G124" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I124" s="38">
+      <c r="I124" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-      <c r="F125" s="29">
+      <c r="A125" s="36"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
+      <c r="F125" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G125" s="30">
+      <c r="G125" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I125" s="38">
+      <c r="I125" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="F126" s="29">
+      <c r="A126" s="36"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="F126" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G126" s="30">
+      <c r="G126" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I126" s="38">
+      <c r="I126" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="F127" s="29">
+      <c r="A127" s="36"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="F127" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G127" s="30">
+      <c r="G127" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I127" s="38">
+      <c r="I127" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="F128" s="29">
+      <c r="A128" s="36"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="F128" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G128" s="30">
+      <c r="G128" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I128" s="38">
+      <c r="I128" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="F129" s="29">
+      <c r="A129" s="36"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
+      <c r="F129" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G129" s="30">
+      <c r="G129" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I129" s="38">
+      <c r="I129" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
-      <c r="F130" s="29">
+      <c r="A130" s="36"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="F130" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G130" s="30">
+      <c r="G130" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I130" s="38">
+      <c r="I130" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
-      <c r="F131" s="29">
+      <c r="A131" s="36"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="F131" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G131" s="30">
+      <c r="G131" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I131" s="38">
+      <c r="I131" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
-      <c r="F132" s="29">
+      <c r="A132" s="36"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
+      <c r="F132" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G132" s="30">
+      <c r="G132" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I132" s="38">
+      <c r="I132" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
-      <c r="F133" s="29">
+      <c r="A133" s="36"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="F133" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G133" s="30">
+      <c r="G133" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I133" s="38">
+      <c r="I133" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
-      <c r="F134" s="29">
+      <c r="A134" s="36"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="F134" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G134" s="30">
+      <c r="G134" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I134" s="38">
+      <c r="I134" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="F135" s="29">
+      <c r="A135" s="36"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="F135" s="27">
         <f t="shared" ref="F135:F198" si="9">IF(D135&lt;&gt;0,B135/D135,)</f>
         <v>0</v>
       </c>
-      <c r="G135" s="30">
+      <c r="G135" s="28">
         <f t="shared" ref="G135:G198" si="10">IF(C135&lt;&gt;0,B135/C135,)</f>
         <v>0</v>
       </c>
-      <c r="I135" s="38">
+      <c r="I135" s="35">
         <f t="shared" ref="I135:I198" si="11">IF( D135&lt;&gt;0,C135/D135,)</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="F136" s="29">
+      <c r="A136" s="36"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="F136" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G136" s="30">
+      <c r="G136" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I136" s="38">
+      <c r="I136" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="25"/>
-      <c r="C137" s="25"/>
-      <c r="F137" s="29">
+      <c r="A137" s="36"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="F137" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G137" s="30">
+      <c r="G137" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I137" s="38">
+      <c r="I137" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="25"/>
-      <c r="F138" s="29">
+      <c r="A138" s="36"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="F138" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G138" s="30">
+      <c r="G138" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I138" s="38">
+      <c r="I138" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="25"/>
-      <c r="F139" s="29">
+      <c r="A139" s="36"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="F139" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G139" s="30">
+      <c r="G139" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I139" s="38">
+      <c r="I139" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
-      <c r="F140" s="29">
+      <c r="A140" s="36"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="F140" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G140" s="30">
+      <c r="G140" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I140" s="38">
+      <c r="I140" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
-      <c r="F141" s="29">
+      <c r="A141" s="36"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="F141" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G141" s="30">
+      <c r="G141" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I141" s="38">
+      <c r="I141" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
-      <c r="F142" s="29">
+      <c r="A142" s="36"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="F142" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G142" s="30">
+      <c r="G142" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I142" s="38">
+      <c r="I142" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="25"/>
-      <c r="F143" s="29">
+      <c r="A143" s="36"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="F143" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G143" s="30">
+      <c r="G143" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I143" s="38">
+      <c r="I143" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="25"/>
-      <c r="F144" s="29">
+      <c r="A144" s="36"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="24"/>
+      <c r="F144" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G144" s="30">
+      <c r="G144" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I144" s="38">
+      <c r="I144" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="25"/>
-      <c r="F145" s="29">
+      <c r="A145" s="36"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="24"/>
+      <c r="F145" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G145" s="30">
+      <c r="G145" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I145" s="38">
+      <c r="I145" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="25"/>
-      <c r="F146" s="29">
+      <c r="A146" s="36"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="24"/>
+      <c r="F146" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G146" s="30">
+      <c r="G146" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I146" s="38">
+      <c r="I146" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
-      <c r="F147" s="29">
+      <c r="A147" s="36"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
+      <c r="F147" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G147" s="30">
+      <c r="G147" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I147" s="38">
+      <c r="I147" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
-      <c r="F148" s="29">
+      <c r="A148" s="36"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="F148" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G148" s="30">
+      <c r="G148" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I148" s="38">
+      <c r="I148" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
-      <c r="F149" s="29">
+      <c r="A149" s="36"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
+      <c r="F149" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G149" s="30">
+      <c r="G149" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I149" s="38">
+      <c r="I149" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="25"/>
-      <c r="F150" s="29">
+      <c r="A150" s="36"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="F150" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G150" s="30">
+      <c r="G150" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I150" s="38">
+      <c r="I150" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-      <c r="F151" s="29">
+      <c r="A151" s="36"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="24"/>
+      <c r="F151" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G151" s="30">
+      <c r="G151" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I151" s="38">
+      <c r="I151" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="25"/>
-      <c r="F152" s="29">
+      <c r="A152" s="36"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
+      <c r="F152" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G152" s="30">
+      <c r="G152" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I152" s="38">
+      <c r="I152" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="25"/>
-      <c r="F153" s="29">
+      <c r="A153" s="36"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="F153" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G153" s="30">
+      <c r="G153" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I153" s="38">
+      <c r="I153" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
-      <c r="B154" s="25"/>
-      <c r="C154" s="25"/>
-      <c r="F154" s="29">
+      <c r="A154" s="36"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
+      <c r="F154" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G154" s="30">
+      <c r="G154" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I154" s="38">
+      <c r="I154" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
-      <c r="B155" s="25"/>
-      <c r="C155" s="25"/>
-      <c r="F155" s="29">
+      <c r="A155" s="36"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
+      <c r="F155" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G155" s="30">
+      <c r="G155" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I155" s="38">
+      <c r="I155" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
-      <c r="B156" s="25"/>
-      <c r="C156" s="25"/>
-      <c r="F156" s="29">
+      <c r="A156" s="36"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
+      <c r="F156" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G156" s="30">
+      <c r="G156" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I156" s="38">
+      <c r="I156" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
-      <c r="B157" s="25"/>
-      <c r="C157" s="25"/>
-      <c r="F157" s="29">
+      <c r="A157" s="36"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="24"/>
+      <c r="F157" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G157" s="30">
+      <c r="G157" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I157" s="38">
+      <c r="I157" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
-      <c r="B158" s="25"/>
-      <c r="C158" s="25"/>
-      <c r="F158" s="29">
+      <c r="A158" s="36"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="24"/>
+      <c r="F158" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G158" s="30">
+      <c r="G158" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I158" s="38">
+      <c r="I158" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
-      <c r="B159" s="25"/>
-      <c r="C159" s="25"/>
-      <c r="F159" s="29">
+      <c r="A159" s="36"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
+      <c r="F159" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G159" s="30">
+      <c r="G159" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I159" s="38">
+      <c r="I159" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="25"/>
-      <c r="F160" s="29">
+      <c r="A160" s="36"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
+      <c r="F160" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G160" s="30">
+      <c r="G160" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I160" s="38">
+      <c r="I160" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="25"/>
-      <c r="F161" s="29">
+      <c r="A161" s="36"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="24"/>
+      <c r="F161" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G161" s="30">
+      <c r="G161" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I161" s="38">
+      <c r="I161" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="25"/>
-      <c r="F162" s="29">
+      <c r="A162" s="36"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="24"/>
+      <c r="F162" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G162" s="30">
+      <c r="G162" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I162" s="38">
+      <c r="I162" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="40"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="25"/>
-      <c r="F163" s="29">
+      <c r="A163" s="36"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="24"/>
+      <c r="F163" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G163" s="30">
+      <c r="G163" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I163" s="38">
+      <c r="I163" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
-      <c r="B164" s="25"/>
-      <c r="C164" s="25"/>
-      <c r="F164" s="29">
+      <c r="A164" s="36"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
+      <c r="F164" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G164" s="30">
+      <c r="G164" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I164" s="38">
+      <c r="I164" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="40"/>
-      <c r="B165" s="25"/>
-      <c r="C165" s="25"/>
-      <c r="F165" s="29">
+      <c r="A165" s="36"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="24"/>
+      <c r="F165" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G165" s="30">
+      <c r="G165" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I165" s="38">
+      <c r="I165" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
-      <c r="B166" s="25"/>
-      <c r="C166" s="25"/>
-      <c r="F166" s="29">
+      <c r="A166" s="36"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="24"/>
+      <c r="F166" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G166" s="30">
+      <c r="G166" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I166" s="38">
+      <c r="I166" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="25"/>
-      <c r="F167" s="29">
+      <c r="A167" s="36"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="24"/>
+      <c r="F167" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G167" s="30">
+      <c r="G167" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I167" s="38">
+      <c r="I167" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="25"/>
-      <c r="F168" s="29">
+      <c r="A168" s="36"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="24"/>
+      <c r="F168" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G168" s="30">
+      <c r="G168" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I168" s="38">
+      <c r="I168" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="40"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="25"/>
-      <c r="F169" s="29">
+      <c r="A169" s="36"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="24"/>
+      <c r="F169" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G169" s="30">
+      <c r="G169" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I169" s="38">
+      <c r="I169" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="40"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="25"/>
-      <c r="F170" s="29">
+      <c r="A170" s="36"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
+      <c r="F170" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G170" s="30">
+      <c r="G170" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I170" s="38">
+      <c r="I170" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="40"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="25"/>
-      <c r="F171" s="29">
+      <c r="A171" s="36"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="24"/>
+      <c r="F171" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G171" s="30">
+      <c r="G171" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I171" s="38">
+      <c r="I171" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="40"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="25"/>
-      <c r="F172" s="29">
+      <c r="A172" s="36"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="24"/>
+      <c r="F172" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G172" s="30">
+      <c r="G172" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I172" s="38">
+      <c r="I172" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="40"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="25"/>
-      <c r="F173" s="29">
+      <c r="A173" s="36"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="24"/>
+      <c r="F173" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G173" s="30">
+      <c r="G173" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I173" s="38">
+      <c r="I173" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="40"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="25"/>
-      <c r="F174" s="29">
+      <c r="A174" s="36"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
+      <c r="F174" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G174" s="30">
+      <c r="G174" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I174" s="38">
+      <c r="I174" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="40"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
-      <c r="F175" s="29">
+      <c r="A175" s="36"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="24"/>
+      <c r="F175" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G175" s="30">
+      <c r="G175" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I175" s="38">
+      <c r="I175" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="40"/>
-      <c r="B176" s="25"/>
-      <c r="C176" s="25"/>
-      <c r="F176" s="29">
+      <c r="A176" s="36"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="24"/>
+      <c r="F176" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G176" s="30">
+      <c r="G176" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I176" s="38">
+      <c r="I176" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="40"/>
-      <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-      <c r="F177" s="29">
+      <c r="A177" s="36"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="24"/>
+      <c r="F177" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G177" s="30">
+      <c r="G177" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I177" s="38">
+      <c r="I177" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="40"/>
-      <c r="B178" s="25"/>
-      <c r="C178" s="25"/>
-      <c r="F178" s="29">
+      <c r="A178" s="36"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="24"/>
+      <c r="F178" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G178" s="30">
+      <c r="G178" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I178" s="38">
+      <c r="I178" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="40"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="25"/>
-      <c r="F179" s="29">
+      <c r="A179" s="36"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="24"/>
+      <c r="F179" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G179" s="30">
+      <c r="G179" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I179" s="38">
+      <c r="I179" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="40"/>
-      <c r="B180" s="25"/>
-      <c r="C180" s="25"/>
-      <c r="F180" s="29">
+      <c r="A180" s="36"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="24"/>
+      <c r="F180" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G180" s="30">
+      <c r="G180" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I180" s="38">
+      <c r="I180" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="40"/>
-      <c r="B181" s="25"/>
-      <c r="C181" s="25"/>
-      <c r="F181" s="29">
+      <c r="A181" s="36"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
+      <c r="F181" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G181" s="30">
+      <c r="G181" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I181" s="38">
+      <c r="I181" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="40"/>
-      <c r="B182" s="25"/>
-      <c r="C182" s="25"/>
-      <c r="F182" s="29">
+      <c r="A182" s="36"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
+      <c r="F182" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G182" s="30">
+      <c r="G182" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I182" s="38">
+      <c r="I182" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="40"/>
-      <c r="B183" s="25"/>
-      <c r="C183" s="25"/>
-      <c r="F183" s="29">
+      <c r="A183" s="36"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
+      <c r="F183" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G183" s="30">
+      <c r="G183" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I183" s="38">
+      <c r="I183" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="40"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="25"/>
-      <c r="F184" s="29">
+      <c r="A184" s="36"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
+      <c r="F184" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G184" s="30">
+      <c r="G184" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I184" s="38">
+      <c r="I184" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="40"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="25"/>
-      <c r="F185" s="29">
+      <c r="A185" s="36"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="24"/>
+      <c r="F185" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G185" s="30">
+      <c r="G185" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I185" s="38">
+      <c r="I185" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="40"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
-      <c r="F186" s="29">
+      <c r="A186" s="36"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
+      <c r="F186" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G186" s="30">
+      <c r="G186" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I186" s="38">
+      <c r="I186" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="40"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="25"/>
-      <c r="F187" s="29">
+      <c r="A187" s="36"/>
+      <c r="B187" s="24"/>
+      <c r="C187" s="24"/>
+      <c r="F187" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G187" s="30">
+      <c r="G187" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I187" s="38">
+      <c r="I187" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="40"/>
-      <c r="B188" s="25"/>
-      <c r="C188" s="25"/>
-      <c r="F188" s="29">
+      <c r="A188" s="36"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
+      <c r="F188" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G188" s="30">
+      <c r="G188" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I188" s="38">
+      <c r="I188" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="40"/>
-      <c r="B189" s="25"/>
-      <c r="C189" s="25"/>
-      <c r="F189" s="29">
+      <c r="A189" s="36"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="24"/>
+      <c r="F189" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G189" s="30">
+      <c r="G189" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I189" s="38">
+      <c r="I189" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="40"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="25"/>
-      <c r="F190" s="29">
+      <c r="A190" s="36"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="24"/>
+      <c r="F190" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G190" s="30">
+      <c r="G190" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I190" s="38">
+      <c r="I190" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="40"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="25"/>
-      <c r="F191" s="29">
+      <c r="A191" s="36"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="24"/>
+      <c r="F191" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G191" s="30">
+      <c r="G191" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I191" s="38">
+      <c r="I191" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="40"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="25"/>
-      <c r="F192" s="29">
+      <c r="A192" s="36"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
+      <c r="F192" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G192" s="30">
+      <c r="G192" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I192" s="38">
+      <c r="I192" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="40"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="25"/>
-      <c r="F193" s="29">
+      <c r="A193" s="36"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
+      <c r="F193" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G193" s="30">
+      <c r="G193" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I193" s="38">
+      <c r="I193" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="40"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="25"/>
-      <c r="F194" s="29">
+      <c r="A194" s="36"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="24"/>
+      <c r="F194" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G194" s="30">
+      <c r="G194" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I194" s="38">
+      <c r="I194" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="40"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="25"/>
-      <c r="F195" s="29">
+      <c r="A195" s="36"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="24"/>
+      <c r="F195" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G195" s="30">
+      <c r="G195" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I195" s="38">
+      <c r="I195" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="40"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="25"/>
-      <c r="F196" s="29">
+      <c r="A196" s="36"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="24"/>
+      <c r="F196" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G196" s="30">
+      <c r="G196" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I196" s="38">
+      <c r="I196" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="40"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="25"/>
-      <c r="F197" s="29">
+      <c r="A197" s="36"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="24"/>
+      <c r="F197" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G197" s="30">
+      <c r="G197" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I197" s="38">
+      <c r="I197" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="40"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="25"/>
-      <c r="F198" s="29">
+      <c r="A198" s="36"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="24"/>
+      <c r="F198" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G198" s="30">
+      <c r="G198" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I198" s="38">
+      <c r="I198" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="40"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="25"/>
-      <c r="F199" s="29">
+      <c r="A199" s="36"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="24"/>
+      <c r="F199" s="27">
         <f t="shared" ref="F199:F262" si="12">IF(D199&lt;&gt;0,B199/D199,)</f>
         <v>0</v>
       </c>
-      <c r="G199" s="30">
+      <c r="G199" s="28">
         <f t="shared" ref="G199:G262" si="13">IF(C199&lt;&gt;0,B199/C199,)</f>
         <v>0</v>
       </c>
-      <c r="I199" s="38">
+      <c r="I199" s="35">
         <f t="shared" ref="I199:I262" si="14">IF( D199&lt;&gt;0,C199/D199,)</f>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="40"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="25"/>
-      <c r="F200" s="29">
+      <c r="A200" s="36"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="24"/>
+      <c r="F200" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G200" s="30">
+      <c r="G200" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I200" s="38">
+      <c r="I200" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="40"/>
-      <c r="B201" s="25"/>
-      <c r="C201" s="25"/>
-      <c r="F201" s="29">
+      <c r="A201" s="36"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="24"/>
+      <c r="F201" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G201" s="30">
+      <c r="G201" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I201" s="38">
+      <c r="I201" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="40"/>
-      <c r="B202" s="25"/>
-      <c r="C202" s="25"/>
-      <c r="F202" s="29">
+      <c r="A202" s="36"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24"/>
+      <c r="F202" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G202" s="30">
+      <c r="G202" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I202" s="38">
+      <c r="I202" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="40"/>
-      <c r="B203" s="25"/>
-      <c r="C203" s="25"/>
-      <c r="F203" s="29">
+      <c r="A203" s="36"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
+      <c r="F203" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G203" s="30">
+      <c r="G203" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I203" s="38">
+      <c r="I203" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="40"/>
-      <c r="B204" s="25"/>
-      <c r="C204" s="25"/>
-      <c r="F204" s="29">
+      <c r="A204" s="36"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="24"/>
+      <c r="F204" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G204" s="30">
+      <c r="G204" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I204" s="38">
+      <c r="I204" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="40"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="25"/>
-      <c r="F205" s="29">
+      <c r="A205" s="36"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="24"/>
+      <c r="F205" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G205" s="30">
+      <c r="G205" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I205" s="38">
+      <c r="I205" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="40"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
-      <c r="F206" s="29">
+      <c r="A206" s="36"/>
+      <c r="B206" s="24"/>
+      <c r="C206" s="24"/>
+      <c r="F206" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G206" s="30">
+      <c r="G206" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I206" s="38">
+      <c r="I206" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="40"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="25"/>
-      <c r="F207" s="29">
+      <c r="A207" s="36"/>
+      <c r="B207" s="24"/>
+      <c r="C207" s="24"/>
+      <c r="F207" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G207" s="30">
+      <c r="G207" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I207" s="38">
+      <c r="I207" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="40"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
-      <c r="F208" s="29">
+      <c r="A208" s="36"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="24"/>
+      <c r="F208" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G208" s="30">
+      <c r="G208" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I208" s="38">
+      <c r="I208" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="40"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="25"/>
-      <c r="F209" s="29">
+      <c r="A209" s="36"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="24"/>
+      <c r="F209" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G209" s="30">
+      <c r="G209" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I209" s="38">
+      <c r="I209" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="40"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="25"/>
-      <c r="F210" s="29">
+      <c r="A210" s="36"/>
+      <c r="B210" s="24"/>
+      <c r="C210" s="24"/>
+      <c r="F210" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G210" s="30">
+      <c r="G210" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I210" s="38">
+      <c r="I210" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="40"/>
-      <c r="B211" s="25"/>
-      <c r="C211" s="25"/>
-      <c r="F211" s="29">
+      <c r="A211" s="36"/>
+      <c r="B211" s="24"/>
+      <c r="C211" s="24"/>
+      <c r="F211" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G211" s="30">
+      <c r="G211" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I211" s="38">
+      <c r="I211" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="40"/>
-      <c r="B212" s="25"/>
-      <c r="C212" s="25"/>
-      <c r="F212" s="29">
+      <c r="A212" s="36"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="24"/>
+      <c r="F212" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G212" s="30">
+      <c r="G212" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I212" s="38">
+      <c r="I212" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="40"/>
-      <c r="B213" s="25"/>
-      <c r="C213" s="25"/>
-      <c r="F213" s="29">
+      <c r="A213" s="36"/>
+      <c r="B213" s="24"/>
+      <c r="C213" s="24"/>
+      <c r="F213" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G213" s="30">
+      <c r="G213" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I213" s="38">
+      <c r="I213" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="40"/>
-      <c r="B214" s="25"/>
-      <c r="C214" s="25"/>
-      <c r="F214" s="29">
+      <c r="A214" s="36"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
+      <c r="F214" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G214" s="30">
+      <c r="G214" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I214" s="38">
+      <c r="I214" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="40"/>
-      <c r="B215" s="25"/>
-      <c r="C215" s="25"/>
-      <c r="F215" s="29">
+      <c r="A215" s="36"/>
+      <c r="B215" s="24"/>
+      <c r="C215" s="24"/>
+      <c r="F215" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G215" s="30">
+      <c r="G215" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I215" s="38">
+      <c r="I215" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="40"/>
-      <c r="B216" s="25"/>
-      <c r="C216" s="25"/>
-      <c r="F216" s="29">
+      <c r="A216" s="36"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="24"/>
+      <c r="F216" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G216" s="30">
+      <c r="G216" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I216" s="38">
+      <c r="I216" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="40"/>
-      <c r="B217" s="25"/>
-      <c r="C217" s="25"/>
-      <c r="F217" s="29">
+      <c r="A217" s="36"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="24"/>
+      <c r="F217" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G217" s="30">
+      <c r="G217" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I217" s="38">
+      <c r="I217" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="40"/>
-      <c r="B218" s="25"/>
-      <c r="C218" s="25"/>
-      <c r="F218" s="29">
+      <c r="A218" s="36"/>
+      <c r="B218" s="24"/>
+      <c r="C218" s="24"/>
+      <c r="F218" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G218" s="30">
+      <c r="G218" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I218" s="38">
+      <c r="I218" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="40"/>
-      <c r="B219" s="25"/>
-      <c r="C219" s="25"/>
-      <c r="F219" s="29">
+      <c r="A219" s="36"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="24"/>
+      <c r="F219" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G219" s="30">
+      <c r="G219" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I219" s="38">
+      <c r="I219" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="40"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="25"/>
-      <c r="F220" s="29">
+      <c r="A220" s="36"/>
+      <c r="B220" s="24"/>
+      <c r="C220" s="24"/>
+      <c r="F220" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G220" s="30">
+      <c r="G220" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I220" s="38">
+      <c r="I220" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="40"/>
-      <c r="B221" s="25"/>
-      <c r="C221" s="25"/>
-      <c r="F221" s="29">
+      <c r="A221" s="36"/>
+      <c r="B221" s="24"/>
+      <c r="C221" s="24"/>
+      <c r="F221" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G221" s="30">
+      <c r="G221" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I221" s="38">
+      <c r="I221" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="40"/>
-      <c r="B222" s="25"/>
-      <c r="C222" s="25"/>
-      <c r="F222" s="29">
+      <c r="A222" s="36"/>
+      <c r="B222" s="24"/>
+      <c r="C222" s="24"/>
+      <c r="F222" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G222" s="30">
+      <c r="G222" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I222" s="38">
+      <c r="I222" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="40"/>
-      <c r="B223" s="25"/>
-      <c r="C223" s="25"/>
-      <c r="F223" s="29">
+      <c r="A223" s="36"/>
+      <c r="B223" s="24"/>
+      <c r="C223" s="24"/>
+      <c r="F223" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G223" s="30">
+      <c r="G223" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I223" s="38">
+      <c r="I223" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="40"/>
-      <c r="B224" s="25"/>
-      <c r="C224" s="25"/>
-      <c r="F224" s="29">
+      <c r="A224" s="36"/>
+      <c r="B224" s="24"/>
+      <c r="C224" s="24"/>
+      <c r="F224" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G224" s="30">
+      <c r="G224" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I224" s="38">
+      <c r="I224" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="40"/>
-      <c r="B225" s="25"/>
-      <c r="C225" s="25"/>
-      <c r="F225" s="29">
+      <c r="A225" s="36"/>
+      <c r="B225" s="24"/>
+      <c r="C225" s="24"/>
+      <c r="F225" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G225" s="30">
+      <c r="G225" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I225" s="38">
+      <c r="I225" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="40"/>
-      <c r="B226" s="25"/>
-      <c r="C226" s="25"/>
-      <c r="F226" s="29">
+      <c r="A226" s="36"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="24"/>
+      <c r="F226" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G226" s="30">
+      <c r="G226" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I226" s="38">
+      <c r="I226" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="40"/>
-      <c r="B227" s="25"/>
-      <c r="C227" s="25"/>
-      <c r="F227" s="29">
+      <c r="A227" s="36"/>
+      <c r="B227" s="24"/>
+      <c r="C227" s="24"/>
+      <c r="F227" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G227" s="30">
+      <c r="G227" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I227" s="38">
+      <c r="I227" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="40"/>
-      <c r="B228" s="25"/>
-      <c r="C228" s="25"/>
-      <c r="F228" s="29">
+      <c r="A228" s="36"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="24"/>
+      <c r="F228" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G228" s="30">
+      <c r="G228" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I228" s="38">
+      <c r="I228" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="40"/>
-      <c r="B229" s="25"/>
-      <c r="C229" s="25"/>
-      <c r="F229" s="29">
+      <c r="A229" s="36"/>
+      <c r="B229" s="24"/>
+      <c r="C229" s="24"/>
+      <c r="F229" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G229" s="30">
+      <c r="G229" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I229" s="38">
+      <c r="I229" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="40"/>
-      <c r="B230" s="25"/>
-      <c r="C230" s="25"/>
-      <c r="F230" s="29">
+      <c r="A230" s="36"/>
+      <c r="B230" s="24"/>
+      <c r="C230" s="24"/>
+      <c r="F230" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G230" s="30">
+      <c r="G230" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I230" s="38">
+      <c r="I230" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="40"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="25"/>
-      <c r="F231" s="29">
+      <c r="A231" s="36"/>
+      <c r="B231" s="24"/>
+      <c r="C231" s="24"/>
+      <c r="F231" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G231" s="30">
+      <c r="G231" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I231" s="38">
+      <c r="I231" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="40"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="25"/>
-      <c r="F232" s="29">
+      <c r="A232" s="36"/>
+      <c r="B232" s="24"/>
+      <c r="C232" s="24"/>
+      <c r="F232" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G232" s="30">
+      <c r="G232" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I232" s="38">
+      <c r="I232" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="40"/>
-      <c r="B233" s="25"/>
-      <c r="C233" s="25"/>
-      <c r="F233" s="29">
+      <c r="A233" s="36"/>
+      <c r="B233" s="24"/>
+      <c r="C233" s="24"/>
+      <c r="F233" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G233" s="30">
+      <c r="G233" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I233" s="38">
+      <c r="I233" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="40"/>
-      <c r="B234" s="25"/>
-      <c r="C234" s="25"/>
-      <c r="F234" s="29">
+      <c r="A234" s="36"/>
+      <c r="B234" s="24"/>
+      <c r="C234" s="24"/>
+      <c r="F234" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G234" s="30">
+      <c r="G234" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I234" s="38">
+      <c r="I234" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="40"/>
-      <c r="B235" s="25"/>
-      <c r="C235" s="25"/>
-      <c r="F235" s="29">
+      <c r="A235" s="36"/>
+      <c r="B235" s="24"/>
+      <c r="C235" s="24"/>
+      <c r="F235" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G235" s="30">
+      <c r="G235" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I235" s="38">
+      <c r="I235" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="40"/>
-      <c r="B236" s="25"/>
-      <c r="C236" s="25"/>
-      <c r="F236" s="29">
+      <c r="A236" s="36"/>
+      <c r="B236" s="24"/>
+      <c r="C236" s="24"/>
+      <c r="F236" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G236" s="30">
+      <c r="G236" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I236" s="38">
+      <c r="I236" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="40"/>
-      <c r="B237" s="25"/>
-      <c r="C237" s="25"/>
-      <c r="F237" s="29">
+      <c r="A237" s="36"/>
+      <c r="B237" s="24"/>
+      <c r="C237" s="24"/>
+      <c r="F237" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G237" s="30">
+      <c r="G237" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I237" s="38">
+      <c r="I237" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="40"/>
-      <c r="B238" s="25"/>
-      <c r="C238" s="25"/>
-      <c r="F238" s="29">
+      <c r="A238" s="36"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="24"/>
+      <c r="F238" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G238" s="30">
+      <c r="G238" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I238" s="38">
+      <c r="I238" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="40"/>
-      <c r="B239" s="25"/>
-      <c r="C239" s="25"/>
-      <c r="F239" s="29">
+      <c r="A239" s="36"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="24"/>
+      <c r="F239" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G239" s="30">
+      <c r="G239" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I239" s="38">
+      <c r="I239" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="40"/>
-      <c r="B240" s="25"/>
-      <c r="C240" s="25"/>
-      <c r="F240" s="29">
+      <c r="A240" s="36"/>
+      <c r="B240" s="24"/>
+      <c r="C240" s="24"/>
+      <c r="F240" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G240" s="30">
+      <c r="G240" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I240" s="38">
+      <c r="I240" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="40"/>
-      <c r="B241" s="25"/>
-      <c r="C241" s="25"/>
-      <c r="F241" s="29">
+      <c r="A241" s="36"/>
+      <c r="B241" s="24"/>
+      <c r="C241" s="24"/>
+      <c r="F241" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G241" s="30">
+      <c r="G241" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I241" s="38">
+      <c r="I241" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="40"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="25"/>
-      <c r="F242" s="29">
+      <c r="A242" s="36"/>
+      <c r="B242" s="24"/>
+      <c r="C242" s="24"/>
+      <c r="F242" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G242" s="30">
+      <c r="G242" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I242" s="38">
+      <c r="I242" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="40"/>
-      <c r="B243" s="25"/>
-      <c r="C243" s="25"/>
-      <c r="F243" s="29">
+      <c r="A243" s="36"/>
+      <c r="B243" s="24"/>
+      <c r="C243" s="24"/>
+      <c r="F243" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G243" s="30">
+      <c r="G243" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I243" s="38">
+      <c r="I243" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="40"/>
-      <c r="B244" s="25"/>
-      <c r="C244" s="25"/>
-      <c r="F244" s="29">
+      <c r="A244" s="36"/>
+      <c r="B244" s="24"/>
+      <c r="C244" s="24"/>
+      <c r="F244" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G244" s="30">
+      <c r="G244" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I244" s="38">
+      <c r="I244" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="40"/>
-      <c r="B245" s="25"/>
-      <c r="C245" s="25"/>
-      <c r="F245" s="29">
+      <c r="A245" s="36"/>
+      <c r="B245" s="24"/>
+      <c r="C245" s="24"/>
+      <c r="F245" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G245" s="30">
+      <c r="G245" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I245" s="38">
+      <c r="I245" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="40"/>
-      <c r="B246" s="25"/>
-      <c r="C246" s="25"/>
-      <c r="F246" s="29">
+      <c r="A246" s="36"/>
+      <c r="B246" s="24"/>
+      <c r="C246" s="24"/>
+      <c r="F246" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G246" s="30">
+      <c r="G246" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I246" s="38">
+      <c r="I246" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="40"/>
-      <c r="B247" s="25"/>
-      <c r="C247" s="25"/>
-      <c r="F247" s="29">
+      <c r="A247" s="36"/>
+      <c r="B247" s="24"/>
+      <c r="C247" s="24"/>
+      <c r="F247" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G247" s="30">
+      <c r="G247" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I247" s="38">
+      <c r="I247" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="40"/>
-      <c r="B248" s="25"/>
-      <c r="C248" s="25"/>
-      <c r="F248" s="29">
+      <c r="A248" s="36"/>
+      <c r="B248" s="24"/>
+      <c r="C248" s="24"/>
+      <c r="F248" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G248" s="30">
+      <c r="G248" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I248" s="38">
+      <c r="I248" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="40"/>
-      <c r="B249" s="25"/>
-      <c r="C249" s="25"/>
-      <c r="F249" s="29">
+      <c r="A249" s="36"/>
+      <c r="B249" s="24"/>
+      <c r="C249" s="24"/>
+      <c r="F249" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G249" s="30">
+      <c r="G249" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I249" s="38">
+      <c r="I249" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="40"/>
-      <c r="B250" s="25"/>
-      <c r="C250" s="25"/>
-      <c r="F250" s="29">
+      <c r="A250" s="36"/>
+      <c r="B250" s="24"/>
+      <c r="C250" s="24"/>
+      <c r="F250" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G250" s="30">
+      <c r="G250" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I250" s="38">
+      <c r="I250" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="40"/>
-      <c r="B251" s="25"/>
-      <c r="C251" s="25"/>
-      <c r="F251" s="29">
+      <c r="A251" s="36"/>
+      <c r="B251" s="24"/>
+      <c r="C251" s="24"/>
+      <c r="F251" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G251" s="30">
+      <c r="G251" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I251" s="38">
+      <c r="I251" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="40"/>
-      <c r="B252" s="25"/>
-      <c r="C252" s="25"/>
-      <c r="F252" s="29">
+      <c r="A252" s="36"/>
+      <c r="B252" s="24"/>
+      <c r="C252" s="24"/>
+      <c r="F252" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G252" s="30">
+      <c r="G252" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I252" s="38">
+      <c r="I252" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="40"/>
-      <c r="B253" s="25"/>
-      <c r="C253" s="25"/>
-      <c r="F253" s="29">
+      <c r="A253" s="36"/>
+      <c r="B253" s="24"/>
+      <c r="C253" s="24"/>
+      <c r="F253" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G253" s="30">
+      <c r="G253" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I253" s="38">
+      <c r="I253" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="40"/>
-      <c r="B254" s="25"/>
-      <c r="C254" s="25"/>
-      <c r="F254" s="29">
+      <c r="A254" s="36"/>
+      <c r="B254" s="24"/>
+      <c r="C254" s="24"/>
+      <c r="F254" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G254" s="30">
+      <c r="G254" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I254" s="38">
+      <c r="I254" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="40"/>
-      <c r="B255" s="25"/>
-      <c r="C255" s="25"/>
-      <c r="F255" s="29">
+      <c r="A255" s="36"/>
+      <c r="B255" s="24"/>
+      <c r="C255" s="24"/>
+      <c r="F255" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G255" s="30">
+      <c r="G255" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I255" s="38">
+      <c r="I255" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="40"/>
-      <c r="B256" s="25"/>
-      <c r="C256" s="25"/>
-      <c r="F256" s="29">
+      <c r="A256" s="36"/>
+      <c r="B256" s="24"/>
+      <c r="C256" s="24"/>
+      <c r="F256" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G256" s="30">
+      <c r="G256" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I256" s="38">
+      <c r="I256" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="40"/>
-      <c r="B257" s="25"/>
-      <c r="C257" s="25"/>
-      <c r="F257" s="29">
+      <c r="A257" s="36"/>
+      <c r="B257" s="24"/>
+      <c r="C257" s="24"/>
+      <c r="F257" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G257" s="30">
+      <c r="G257" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I257" s="38">
+      <c r="I257" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="40"/>
-      <c r="B258" s="25"/>
-      <c r="C258" s="25"/>
-      <c r="F258" s="29">
+      <c r="A258" s="36"/>
+      <c r="B258" s="24"/>
+      <c r="C258" s="24"/>
+      <c r="F258" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G258" s="30">
+      <c r="G258" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I258" s="38">
+      <c r="I258" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="40"/>
-      <c r="B259" s="25"/>
-      <c r="C259" s="25"/>
-      <c r="F259" s="29">
+      <c r="A259" s="36"/>
+      <c r="B259" s="24"/>
+      <c r="C259" s="24"/>
+      <c r="F259" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G259" s="30">
+      <c r="G259" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I259" s="38">
+      <c r="I259" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="40"/>
-      <c r="B260" s="25"/>
-      <c r="C260" s="25"/>
-      <c r="F260" s="29">
+      <c r="A260" s="36"/>
+      <c r="B260" s="24"/>
+      <c r="C260" s="24"/>
+      <c r="F260" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G260" s="30">
+      <c r="G260" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I260" s="38">
+      <c r="I260" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="40"/>
-      <c r="B261" s="25"/>
-      <c r="C261" s="25"/>
-      <c r="F261" s="29">
+      <c r="A261" s="36"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
+      <c r="F261" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G261" s="30">
+      <c r="G261" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I261" s="38">
+      <c r="I261" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="40"/>
-      <c r="B262" s="25"/>
-      <c r="C262" s="25"/>
-      <c r="F262" s="29">
+      <c r="A262" s="36"/>
+      <c r="B262" s="24"/>
+      <c r="C262" s="24"/>
+      <c r="F262" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G262" s="30">
+      <c r="G262" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I262" s="38">
+      <c r="I262" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="40"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="25"/>
-      <c r="F263" s="29">
+      <c r="A263" s="36"/>
+      <c r="B263" s="24"/>
+      <c r="C263" s="24"/>
+      <c r="F263" s="27">
         <f t="shared" ref="F263:F300" si="15">IF(D263&lt;&gt;0,B263/D263,)</f>
         <v>0</v>
       </c>
-      <c r="G263" s="30">
+      <c r="G263" s="28">
         <f t="shared" ref="G263:G300" si="16">IF(C263&lt;&gt;0,B263/C263,)</f>
         <v>0</v>
       </c>
-      <c r="I263" s="38">
+      <c r="I263" s="35">
         <f t="shared" ref="I263:I300" si="17">IF( D263&lt;&gt;0,C263/D263,)</f>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="40"/>
-      <c r="B264" s="25"/>
-      <c r="C264" s="25"/>
-      <c r="F264" s="29">
+      <c r="A264" s="36"/>
+      <c r="B264" s="24"/>
+      <c r="C264" s="24"/>
+      <c r="F264" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G264" s="30">
+      <c r="G264" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I264" s="38">
+      <c r="I264" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="40"/>
-      <c r="B265" s="25"/>
-      <c r="C265" s="25"/>
-      <c r="F265" s="29">
+      <c r="A265" s="36"/>
+      <c r="B265" s="24"/>
+      <c r="C265" s="24"/>
+      <c r="F265" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G265" s="30">
+      <c r="G265" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I265" s="38">
+      <c r="I265" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="40"/>
-      <c r="B266" s="25"/>
-      <c r="C266" s="25"/>
-      <c r="F266" s="29">
+      <c r="A266" s="36"/>
+      <c r="B266" s="24"/>
+      <c r="C266" s="24"/>
+      <c r="F266" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G266" s="30">
+      <c r="G266" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I266" s="38">
+      <c r="I266" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="40"/>
-      <c r="B267" s="25"/>
-      <c r="C267" s="25"/>
-      <c r="F267" s="29">
+      <c r="A267" s="36"/>
+      <c r="B267" s="24"/>
+      <c r="C267" s="24"/>
+      <c r="F267" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G267" s="30">
+      <c r="G267" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I267" s="38">
+      <c r="I267" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="40"/>
-      <c r="B268" s="25"/>
-      <c r="C268" s="25"/>
-      <c r="F268" s="29">
+      <c r="A268" s="36"/>
+      <c r="B268" s="24"/>
+      <c r="C268" s="24"/>
+      <c r="F268" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G268" s="30">
+      <c r="G268" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I268" s="38">
+      <c r="I268" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="40"/>
-      <c r="B269" s="25"/>
-      <c r="C269" s="25"/>
-      <c r="F269" s="29">
+      <c r="A269" s="36"/>
+      <c r="B269" s="24"/>
+      <c r="C269" s="24"/>
+      <c r="F269" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G269" s="30">
+      <c r="G269" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I269" s="38">
+      <c r="I269" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="40"/>
-      <c r="B270" s="25"/>
-      <c r="C270" s="25"/>
-      <c r="F270" s="29">
+      <c r="A270" s="36"/>
+      <c r="B270" s="24"/>
+      <c r="C270" s="24"/>
+      <c r="F270" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G270" s="30">
+      <c r="G270" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I270" s="38">
+      <c r="I270" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="40"/>
-      <c r="B271" s="25"/>
-      <c r="C271" s="25"/>
-      <c r="F271" s="29">
+      <c r="A271" s="36"/>
+      <c r="B271" s="24"/>
+      <c r="C271" s="24"/>
+      <c r="F271" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G271" s="30">
+      <c r="G271" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I271" s="38">
+      <c r="I271" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="40"/>
-      <c r="B272" s="25"/>
-      <c r="C272" s="25"/>
-      <c r="F272" s="29">
+      <c r="A272" s="36"/>
+      <c r="B272" s="24"/>
+      <c r="C272" s="24"/>
+      <c r="F272" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G272" s="30">
+      <c r="G272" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I272" s="38">
+      <c r="I272" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="40"/>
-      <c r="B273" s="25"/>
-      <c r="C273" s="25"/>
-      <c r="F273" s="29">
+      <c r="A273" s="36"/>
+      <c r="B273" s="24"/>
+      <c r="C273" s="24"/>
+      <c r="F273" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G273" s="30">
+      <c r="G273" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I273" s="38">
+      <c r="I273" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="40"/>
-      <c r="B274" s="25"/>
-      <c r="C274" s="25"/>
-      <c r="F274" s="29">
+      <c r="A274" s="36"/>
+      <c r="B274" s="24"/>
+      <c r="C274" s="24"/>
+      <c r="F274" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G274" s="30">
+      <c r="G274" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I274" s="38">
+      <c r="I274" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="40"/>
-      <c r="B275" s="25"/>
-      <c r="C275" s="25"/>
-      <c r="F275" s="29">
+      <c r="A275" s="36"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
+      <c r="F275" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G275" s="30">
+      <c r="G275" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I275" s="38">
+      <c r="I275" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="40"/>
-      <c r="B276" s="25"/>
-      <c r="C276" s="25"/>
-      <c r="F276" s="29">
+      <c r="A276" s="36"/>
+      <c r="B276" s="24"/>
+      <c r="C276" s="24"/>
+      <c r="F276" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G276" s="30">
+      <c r="G276" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I276" s="38">
+      <c r="I276" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="40"/>
-      <c r="B277" s="25"/>
-      <c r="C277" s="25"/>
-      <c r="F277" s="29">
+      <c r="A277" s="36"/>
+      <c r="B277" s="24"/>
+      <c r="C277" s="24"/>
+      <c r="F277" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G277" s="30">
+      <c r="G277" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I277" s="38">
+      <c r="I277" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="40"/>
-      <c r="B278" s="25"/>
-      <c r="C278" s="25"/>
-      <c r="F278" s="29">
+      <c r="A278" s="36"/>
+      <c r="B278" s="24"/>
+      <c r="C278" s="24"/>
+      <c r="F278" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G278" s="30">
+      <c r="G278" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I278" s="38">
+      <c r="I278" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="40"/>
-      <c r="B279" s="25"/>
-      <c r="C279" s="25"/>
-      <c r="F279" s="29">
+      <c r="A279" s="36"/>
+      <c r="B279" s="24"/>
+      <c r="C279" s="24"/>
+      <c r="F279" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G279" s="30">
+      <c r="G279" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I279" s="38">
+      <c r="I279" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="40"/>
-      <c r="B280" s="25"/>
-      <c r="C280" s="25"/>
-      <c r="F280" s="29">
+      <c r="A280" s="36"/>
+      <c r="B280" s="24"/>
+      <c r="C280" s="24"/>
+      <c r="F280" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G280" s="30">
+      <c r="G280" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I280" s="38">
+      <c r="I280" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="40"/>
-      <c r="B281" s="25"/>
-      <c r="C281" s="25"/>
-      <c r="F281" s="29">
+      <c r="A281" s="36"/>
+      <c r="B281" s="24"/>
+      <c r="C281" s="24"/>
+      <c r="F281" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G281" s="30">
+      <c r="G281" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I281" s="38">
+      <c r="I281" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="40"/>
-      <c r="B282" s="25"/>
-      <c r="C282" s="25"/>
-      <c r="F282" s="29">
+      <c r="A282" s="36"/>
+      <c r="B282" s="24"/>
+      <c r="C282" s="24"/>
+      <c r="F282" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G282" s="30">
+      <c r="G282" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I282" s="38">
+      <c r="I282" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="40"/>
-      <c r="B283" s="25"/>
-      <c r="C283" s="25"/>
-      <c r="F283" s="29">
+      <c r="A283" s="36"/>
+      <c r="B283" s="24"/>
+      <c r="C283" s="24"/>
+      <c r="F283" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G283" s="30">
+      <c r="G283" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I283" s="38">
+      <c r="I283" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="40"/>
-      <c r="B284" s="25"/>
-      <c r="C284" s="25"/>
-      <c r="F284" s="29">
+      <c r="A284" s="36"/>
+      <c r="B284" s="24"/>
+      <c r="C284" s="24"/>
+      <c r="F284" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G284" s="30">
+      <c r="G284" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I284" s="38">
+      <c r="I284" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="40"/>
-      <c r="B285" s="25"/>
-      <c r="C285" s="25"/>
-      <c r="F285" s="29">
+      <c r="A285" s="36"/>
+      <c r="B285" s="24"/>
+      <c r="C285" s="24"/>
+      <c r="F285" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G285" s="30">
+      <c r="G285" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I285" s="38">
+      <c r="I285" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="40"/>
-      <c r="B286" s="25"/>
-      <c r="C286" s="25"/>
-      <c r="F286" s="29">
+      <c r="A286" s="36"/>
+      <c r="B286" s="24"/>
+      <c r="C286" s="24"/>
+      <c r="F286" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G286" s="30">
+      <c r="G286" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I286" s="38">
+      <c r="I286" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="40"/>
-      <c r="B287" s="25"/>
-      <c r="C287" s="25"/>
-      <c r="F287" s="29">
+      <c r="A287" s="36"/>
+      <c r="B287" s="24"/>
+      <c r="C287" s="24"/>
+      <c r="F287" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G287" s="30">
+      <c r="G287" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I287" s="38">
+      <c r="I287" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="40"/>
-      <c r="B288" s="25"/>
-      <c r="C288" s="25"/>
-      <c r="F288" s="29">
+      <c r="A288" s="36"/>
+      <c r="B288" s="24"/>
+      <c r="C288" s="24"/>
+      <c r="F288" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G288" s="30">
+      <c r="G288" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I288" s="38">
+      <c r="I288" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="40"/>
-      <c r="B289" s="25"/>
-      <c r="C289" s="25"/>
-      <c r="F289" s="29">
+      <c r="A289" s="36"/>
+      <c r="B289" s="24"/>
+      <c r="C289" s="24"/>
+      <c r="F289" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G289" s="30">
+      <c r="G289" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I289" s="38">
+      <c r="I289" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="40"/>
-      <c r="B290" s="25"/>
-      <c r="C290" s="25"/>
-      <c r="F290" s="29">
+      <c r="A290" s="36"/>
+      <c r="B290" s="24"/>
+      <c r="C290" s="24"/>
+      <c r="F290" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G290" s="30">
+      <c r="G290" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I290" s="38">
+      <c r="I290" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="40"/>
-      <c r="B291" s="25"/>
-      <c r="C291" s="25"/>
-      <c r="F291" s="29">
+      <c r="A291" s="36"/>
+      <c r="B291" s="24"/>
+      <c r="C291" s="24"/>
+      <c r="F291" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G291" s="30">
+      <c r="G291" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I291" s="38">
+      <c r="I291" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="40"/>
-      <c r="B292" s="25"/>
-      <c r="C292" s="25"/>
-      <c r="F292" s="29">
+      <c r="A292" s="36"/>
+      <c r="B292" s="24"/>
+      <c r="C292" s="24"/>
+      <c r="F292" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G292" s="30">
+      <c r="G292" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I292" s="38">
+      <c r="I292" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="40"/>
-      <c r="B293" s="25"/>
-      <c r="C293" s="25"/>
-      <c r="F293" s="29">
+      <c r="A293" s="36"/>
+      <c r="B293" s="24"/>
+      <c r="C293" s="24"/>
+      <c r="F293" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G293" s="30">
+      <c r="G293" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I293" s="38">
+      <c r="I293" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="40"/>
-      <c r="B294" s="25"/>
-      <c r="C294" s="25"/>
-      <c r="F294" s="29">
+      <c r="A294" s="36"/>
+      <c r="B294" s="24"/>
+      <c r="C294" s="24"/>
+      <c r="F294" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G294" s="30">
+      <c r="G294" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I294" s="38">
+      <c r="I294" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="40"/>
-      <c r="B295" s="25"/>
-      <c r="C295" s="25"/>
-      <c r="F295" s="29">
+      <c r="A295" s="36"/>
+      <c r="B295" s="24"/>
+      <c r="C295" s="24"/>
+      <c r="F295" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G295" s="30">
+      <c r="G295" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I295" s="38">
+      <c r="I295" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="40"/>
-      <c r="B296" s="25"/>
-      <c r="C296" s="25"/>
-      <c r="F296" s="29">
+      <c r="A296" s="36"/>
+      <c r="B296" s="24"/>
+      <c r="C296" s="24"/>
+      <c r="F296" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G296" s="30">
+      <c r="G296" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I296" s="38">
+      <c r="I296" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="40"/>
-      <c r="B297" s="25"/>
-      <c r="C297" s="25"/>
-      <c r="F297" s="29">
+      <c r="A297" s="36"/>
+      <c r="B297" s="24"/>
+      <c r="C297" s="24"/>
+      <c r="F297" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G297" s="30">
+      <c r="G297" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I297" s="38">
+      <c r="I297" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="40"/>
-      <c r="B298" s="25"/>
-      <c r="C298" s="25"/>
-      <c r="F298" s="29">
+      <c r="A298" s="36"/>
+      <c r="B298" s="24"/>
+      <c r="C298" s="24"/>
+      <c r="F298" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G298" s="30">
+      <c r="G298" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I298" s="38">
+      <c r="I298" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="40"/>
-      <c r="B299" s="25"/>
-      <c r="C299" s="25"/>
-      <c r="F299" s="29">
+      <c r="A299" s="36"/>
+      <c r="B299" s="24"/>
+      <c r="C299" s="24"/>
+      <c r="F299" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G299" s="30">
+      <c r="G299" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I299" s="38">
+      <c r="I299" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="41"/>
-      <c r="B300" s="42"/>
-      <c r="C300" s="42"/>
-      <c r="D300" s="42"/>
-      <c r="E300" s="43"/>
-      <c r="F300" s="44">
+      <c r="A300" s="37"/>
+      <c r="B300" s="38"/>
+      <c r="C300" s="38"/>
+      <c r="D300" s="38"/>
+      <c r="E300" s="39"/>
+      <c r="F300" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G300" s="43">
+      <c r="G300" s="39">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H300" s="43"/>
-      <c r="I300" s="45">
+      <c r="H300" s="39"/>
+      <c r="I300" s="41">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="25"/>
-      <c r="B301" s="25"/>
-      <c r="C301" s="25"/>
-      <c r="E301" s="31"/>
-      <c r="F301" s="31"/>
-      <c r="G301" s="31"/>
-      <c r="H301" s="31"/>
-      <c r="I301" s="31"/>
+      <c r="A301" s="24"/>
+      <c r="B301" s="24"/>
+      <c r="C301" s="24"/>
+      <c r="E301" s="29"/>
+      <c r="F301" s="29"/>
+      <c r="G301" s="29"/>
+      <c r="H301" s="29"/>
+      <c r="I301" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
@@ -6340,7 +6357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/moto2020.xlsx
+++ b/moto2020.xlsx
@@ -549,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -620,6 +620,7 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,7 +934,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +988,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3">
         <f>I10*K2</f>
-        <v>15.366540000000001</v>
+        <v>16.46415</v>
       </c>
       <c r="G2" s="3">
         <f>I13</f>
@@ -1021,7 +1022,7 @@
       </c>
       <c r="F3" s="21">
         <f>F2*B10</f>
-        <v>353.43042000000003</v>
+        <v>378.67545000000001</v>
       </c>
       <c r="G3" s="21">
         <f>G2*B10</f>
@@ -1049,7 +1050,7 @@
       </c>
       <c r="M3" s="11">
         <f>SUM(E3:J3)</f>
-        <v>633.93042000000003</v>
+        <v>659.17544999999996</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1142,7 +1143,7 @@
         <v>25</v>
       </c>
       <c r="I10" s="16">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1180,7 +1181,7 @@
   <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1337,20 +1338,29 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="48">
+        <v>43864</v>
+      </c>
+      <c r="B7" s="24">
+        <v>450</v>
+      </c>
+      <c r="C7" s="24">
+        <v>57.02</v>
+      </c>
+      <c r="D7" s="24">
+        <v>12.69</v>
+      </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F70" si="3">IF(D7&lt;&gt;0,B7/D7,)</f>
-        <v>0</v>
+        <v>35.460992907801419</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ref="G7:G70" si="4">IF(C7&lt;&gt;0,B7/C7,)</f>
-        <v>0</v>
+        <v>7.8919677306208342</v>
       </c>
       <c r="I7" s="35">
         <f t="shared" ref="I7:I70" si="5">IF( D7&lt;&gt;0,C7/D7,)</f>
-        <v>0</v>
+        <v>4.4933018124507491</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/moto2020.xlsx
+++ b/moto2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>km</t>
   </si>
@@ -129,11 +129,26 @@
   <si>
     <t>PREÇO/Litro</t>
   </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Kilometragem</t>
+  </si>
+  <si>
+    <t>TROCA</t>
+  </si>
+  <si>
+    <t>Total dia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -621,6 +636,33 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1238,7 @@
     <col min="10" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1206,7 +1248,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
     </row>
-    <row r="2" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42">
         <v>43752</v>
       </c>
@@ -1259,7 +1301,7 @@
         <v>4.1955661124307202</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>43756</v>
       </c>
@@ -1285,7 +1327,7 @@
         <v>4.1990668740279942</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>43763</v>
       </c>
@@ -1311,7 +1353,7 @@
         <v>4.2142857142857144</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="47">
         <v>43859</v>
       </c>
@@ -1337,7 +1379,7 @@
         <v>4.4988198269079458</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48">
         <v>43864</v>
       </c>
@@ -1363,24 +1405,34 @@
         <v>4.4933018124507491</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
+        <v>43876</v>
+      </c>
+      <c r="B8" s="24">
+        <v>435</v>
+      </c>
+      <c r="C8" s="24">
+        <v>57.63</v>
+      </c>
+      <c r="D8" s="49">
+        <f>C8/4.499</f>
+        <v>12.809513225161149</v>
+      </c>
       <c r="F8" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>33.959135866736069</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.5481520041644972</v>
       </c>
       <c r="I8" s="35">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.4989999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -1397,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -1414,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -1431,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -1448,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -1465,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -1482,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -1499,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -1514,6 +1566,12 @@
       <c r="I16" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="K16">
+        <v>57.63</v>
+      </c>
+      <c r="L16">
+        <v>14.02</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6365,239 +6423,1500 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J100"/>
+  <dimension ref="A2:U105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="52"/>
+    <col min="2" max="2" width="8.7109375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="52" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="52" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="52" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="52" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="52" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="52" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3">
-        <v>67898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="52">
+        <v>0</v>
+      </c>
+      <c r="C4" s="53">
         <v>69679</v>
       </c>
-      <c r="C4">
-        <v>69679</v>
-      </c>
-      <c r="D4">
-        <v>69679</v>
-      </c>
-      <c r="E4">
-        <v>69679</v>
-      </c>
-      <c r="I4">
-        <v>69679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" ref="A5:A9" si="0">B5-B4</f>
-        <v>1907</v>
-      </c>
-      <c r="B5">
+      <c r="D4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="52">
+        <v>0</v>
+      </c>
+      <c r="C5" s="53">
         <v>71586</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>2176</v>
-      </c>
-      <c r="B6">
+      <c r="D5" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="52">
+        <v>0</v>
+      </c>
+      <c r="C6" s="53">
         <v>73762</v>
       </c>
-      <c r="C6">
-        <v>73762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>2012</v>
-      </c>
-      <c r="B7">
+      <c r="D6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="52">
+        <v>0</v>
+      </c>
+      <c r="C7" s="53">
         <v>75774</v>
       </c>
-      <c r="E7">
-        <v>75774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>1069</v>
-      </c>
-      <c r="B8">
+      <c r="D7" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="52">
+        <v>0</v>
+      </c>
+      <c r="C8" s="53">
         <v>76843</v>
       </c>
-      <c r="F8">
-        <v>76843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3862</v>
-      </c>
-      <c r="B9">
+      <c r="D8" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="52">
+        <v>0</v>
+      </c>
+      <c r="C9" s="53">
         <v>80705</v>
       </c>
-      <c r="G9">
-        <v>80705</v>
-      </c>
-      <c r="H9">
-        <v>80705</v>
-      </c>
-      <c r="I9">
-        <v>80705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <f>C6-C4</f>
-        <v>4083</v>
-      </c>
-      <c r="E15">
-        <f>E7-E4</f>
-        <v>6095</v>
-      </c>
-      <c r="H15">
-        <f>H9-H3</f>
-        <v>12807</v>
-      </c>
-      <c r="I15">
-        <f>I9-I4</f>
-        <v>11026</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D9" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
+        <v>43876</v>
+      </c>
+      <c r="C10" s="53">
+        <v>80777</v>
+      </c>
+      <c r="D10" s="54">
+        <v>90</v>
+      </c>
+      <c r="E10" s="56">
+        <v>15</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+    </row>
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="57"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="57"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="57"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="57"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="57"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="57"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+    </row>
+    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="57"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+    </row>
+    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="57"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+    </row>
+    <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="57"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="57"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="57"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="57"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="57"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="57"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="57"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="57"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="57"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="57"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="57"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="57"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="57"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="57"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+    </row>
+    <row r="35" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="57"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="57"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="57"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="57"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+    </row>
+    <row r="39" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="57"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+    </row>
+    <row r="40" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="57"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+    </row>
+    <row r="41" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="57"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+    </row>
+    <row r="42" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="57"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+    </row>
+    <row r="43" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="57"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+    </row>
+    <row r="44" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="57"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+    </row>
+    <row r="45" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="57"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+    </row>
+    <row r="46" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="57"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+    </row>
+    <row r="47" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="57"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+    </row>
+    <row r="48" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="57"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+    </row>
+    <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="57"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+    </row>
+    <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="57"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+    </row>
+    <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="57"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+    </row>
+    <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="57"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+    </row>
+    <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="57"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+    </row>
+    <row r="54" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="57"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+    </row>
+    <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="57"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+    </row>
+    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="57"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+    </row>
+    <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="57"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+    </row>
+    <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="57"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="57"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+    </row>
+    <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="57"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+    </row>
+    <row r="61" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="57"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+    </row>
+    <row r="62" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="57"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+    </row>
+    <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="57"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+    </row>
+    <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="57"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+    </row>
+    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="57"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+    </row>
+    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="57"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+    </row>
+    <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="57"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+    </row>
+    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="57"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+    </row>
+    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="57"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+    </row>
+    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="57"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+    </row>
+    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="57"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+    </row>
+    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="57"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+    </row>
+    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="57"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+    </row>
+    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="57"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+    </row>
+    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="57"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+    </row>
+    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="57"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+    </row>
+    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="57"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+    </row>
+    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="57"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+    </row>
+    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="57"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+    </row>
+    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="57"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+    </row>
+    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="57"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+    </row>
+    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="57"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+    </row>
+    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="57"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="57"/>
+      <c r="L83" s="57"/>
+    </row>
+    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="57"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+    </row>
+    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="57"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="57"/>
+      <c r="L85" s="57"/>
+    </row>
+    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="57"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+    </row>
+    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="57"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="57"/>
+      <c r="L87" s="57"/>
+    </row>
+    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="57"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="57"/>
+      <c r="L88" s="57"/>
+    </row>
+    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="57"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="57"/>
+      <c r="L89" s="57"/>
+    </row>
+    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="57"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="57"/>
+      <c r="L90" s="57"/>
+    </row>
+    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="57"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="57"/>
+      <c r="L91" s="57"/>
+    </row>
+    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="57"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="57"/>
+      <c r="K92" s="57"/>
+      <c r="L92" s="57"/>
+    </row>
+    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="57"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="57"/>
+    </row>
+    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="57"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="57"/>
+      <c r="L94" s="57"/>
+    </row>
+    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="57"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="57"/>
+      <c r="L95" s="57"/>
+    </row>
+    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="57"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
+      <c r="L96" s="57"/>
+    </row>
+    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="57"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="57"/>
+      <c r="K97" s="57"/>
+      <c r="L97" s="57"/>
+    </row>
+    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="57"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="57"/>
+      <c r="J98" s="57"/>
+      <c r="K98" s="57"/>
+      <c r="L98" s="57"/>
+    </row>
+    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="57"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
+      <c r="L99" s="57"/>
+    </row>
+    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="57"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="57"/>
+      <c r="L100" s="57"/>
+    </row>
+    <row r="101" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="53"/>
+    </row>
+    <row r="102" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="53"/>
+    </row>
+    <row r="103" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="53"/>
+    </row>
+    <row r="104" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="53"/>
+    </row>
+    <row r="105" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="53"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B11:B100 D11:L100">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:U10 L3:L100 D3:K9">
+      <formula1>"TROCA"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:K158">
+      <formula1>0</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/moto2020.xlsx
+++ b/moto2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="6" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -181,6 +181,13 @@
       <sz val="10"/>
       <color theme="7"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -564,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -663,6 +670,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,5200 +1228,5209 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L301"/>
+  <dimension ref="B1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="28" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="28" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="28" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
+    <row r="1" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="24"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42">
         <v>43752</v>
       </c>
-      <c r="B3" s="43">
+      <c r="C3" s="43">
         <v>440</v>
       </c>
-      <c r="C3" s="43">
+      <c r="D3" s="43">
         <v>52.99</v>
       </c>
-      <c r="D3" s="44">
+      <c r="E3" s="44">
         <v>12.63</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27">
-        <f t="shared" ref="F3:F5" si="0">IF(D3&lt;&gt;0,B3/D3,)</f>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27">
+        <f t="shared" ref="G3:G5" si="0">IF(E3&lt;&gt;0,C3/E3,)</f>
         <v>34.837688044338876</v>
       </c>
-      <c r="G3" s="28">
-        <f t="shared" ref="G3:G5" si="1">B3/C3</f>
+      <c r="H3" s="28">
+        <f t="shared" ref="H3:H5" si="1">C3/D3</f>
         <v>8.3034534817890169</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="35">
-        <f t="shared" ref="I3:I5" si="2">C3/D3</f>
+      <c r="I3" s="26"/>
+      <c r="J3" s="35">
+        <f t="shared" ref="J3:J5" si="2">D3/E3</f>
         <v>4.1955661124307202</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="45">
         <v>43756</v>
       </c>
-      <c r="B4" s="46">
+      <c r="C4" s="46">
         <v>450</v>
       </c>
-      <c r="C4" s="46">
+      <c r="D4" s="46">
         <v>54</v>
       </c>
-      <c r="D4" s="46">
+      <c r="E4" s="46">
         <v>12.86</v>
       </c>
-      <c r="F4" s="27">
+      <c r="G4" s="27">
         <f t="shared" si="0"/>
         <v>34.992223950233281</v>
       </c>
-      <c r="G4" s="28">
+      <c r="H4" s="28">
         <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="I4" s="35">
+      <c r="J4" s="35">
         <f t="shared" si="2"/>
         <v>4.1990668740279942</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="45">
         <v>43763</v>
       </c>
-      <c r="B5" s="46">
+      <c r="C5" s="46">
         <v>466</v>
       </c>
-      <c r="C5" s="46">
+      <c r="D5" s="46">
         <v>59</v>
       </c>
-      <c r="D5" s="46">
+      <c r="E5" s="46">
         <v>14</v>
       </c>
-      <c r="F5" s="27">
+      <c r="G5" s="27">
         <f t="shared" si="0"/>
         <v>33.285714285714285</v>
       </c>
-      <c r="G5" s="28">
+      <c r="H5" s="28">
         <f t="shared" si="1"/>
         <v>7.898305084745763</v>
       </c>
-      <c r="I5" s="35">
+      <c r="J5" s="35">
         <f t="shared" si="2"/>
         <v>4.2142857142857144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="47">
         <v>43859</v>
       </c>
-      <c r="B6" s="24">
+      <c r="C6" s="24">
         <v>434</v>
       </c>
-      <c r="C6" s="24">
+      <c r="D6" s="24">
         <v>57.18</v>
       </c>
-      <c r="D6" s="24">
+      <c r="E6" s="24">
         <v>12.71</v>
       </c>
-      <c r="F6" s="27">
-        <f>IF(D6&lt;&gt;0,B6/D6,)</f>
+      <c r="G6" s="27">
+        <f>IF(E6&lt;&gt;0,C6/E6,)</f>
         <v>34.146341463414629</v>
       </c>
-      <c r="G6" s="28">
-        <f>IF(C6&lt;&gt;0,B6/C6,)</f>
+      <c r="H6" s="28">
+        <f>IF(D6&lt;&gt;0,C6/D6,)</f>
         <v>7.5900664568030782</v>
       </c>
-      <c r="I6" s="35">
-        <f>IF( D6&lt;&gt;0,C6/D6,)</f>
+      <c r="J6" s="35">
+        <f>IF( E6&lt;&gt;0,D6/E6,)</f>
         <v>4.4988198269079458</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48">
         <v>43864</v>
       </c>
-      <c r="B7" s="24">
+      <c r="C7" s="24">
         <v>450</v>
       </c>
-      <c r="C7" s="24">
+      <c r="D7" s="24">
         <v>57.02</v>
       </c>
-      <c r="D7" s="24">
+      <c r="E7" s="24">
         <v>12.69</v>
       </c>
-      <c r="F7" s="27">
-        <f t="shared" ref="F7:F70" si="3">IF(D7&lt;&gt;0,B7/D7,)</f>
+      <c r="G7" s="27">
+        <f t="shared" ref="G7:G70" si="3">IF(E7&lt;&gt;0,C7/E7,)</f>
         <v>35.460992907801419</v>
       </c>
-      <c r="G7" s="28">
-        <f t="shared" ref="G7:G70" si="4">IF(C7&lt;&gt;0,B7/C7,)</f>
+      <c r="H7" s="28">
+        <f t="shared" ref="H7:H70" si="4">IF(D7&lt;&gt;0,C7/D7,)</f>
         <v>7.8919677306208342</v>
       </c>
-      <c r="I7" s="35">
-        <f t="shared" ref="I7:I70" si="5">IF( D7&lt;&gt;0,C7/D7,)</f>
+      <c r="J7" s="35">
+        <f t="shared" ref="J7:J70" si="5">IF( E7&lt;&gt;0,D7/E7,)</f>
         <v>4.4933018124507491</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="59">
         <v>43876</v>
       </c>
-      <c r="B8" s="24">
+      <c r="C8" s="24">
         <v>435</v>
       </c>
-      <c r="C8" s="24">
+      <c r="D8" s="24">
         <v>57.63</v>
       </c>
-      <c r="D8" s="49">
-        <f>C8/4.499</f>
+      <c r="E8" s="49">
+        <f>D8/4.499</f>
         <v>12.809513225161149</v>
       </c>
-      <c r="F8" s="27">
+      <c r="G8" s="27">
         <f t="shared" si="3"/>
         <v>33.959135866736069</v>
       </c>
-      <c r="G8" s="28">
+      <c r="H8" s="28">
         <f t="shared" si="4"/>
         <v>7.5481520041644972</v>
       </c>
-      <c r="I8" s="35">
+      <c r="J8" s="35">
         <f t="shared" si="5"/>
         <v>4.4989999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="F9" s="27">
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="47">
+        <v>43893</v>
+      </c>
+      <c r="C9" s="60">
+        <v>441</v>
+      </c>
+      <c r="D9" s="24">
+        <v>63</v>
+      </c>
+      <c r="E9" s="24">
+        <v>14</v>
+      </c>
+      <c r="G9" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="28">
+        <v>31.5</v>
+      </c>
+      <c r="H9" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="35">
+        <v>7</v>
+      </c>
+      <c r="J9" s="35">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="24"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="36"/>
       <c r="C10" s="24"/>
-      <c r="F10" s="27">
+      <c r="D10" s="24"/>
+      <c r="G10" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="28">
+      <c r="H10" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I10" s="35">
+      <c r="J10" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="24"/>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
       <c r="C11" s="24"/>
-      <c r="F11" s="27">
+      <c r="D11" s="24"/>
+      <c r="G11" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="28">
+      <c r="H11" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I11" s="35">
+      <c r="J11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="24"/>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
       <c r="C12" s="24"/>
-      <c r="F12" s="27">
+      <c r="D12" s="24"/>
+      <c r="G12" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G12" s="28">
+      <c r="H12" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I12" s="35">
+      <c r="J12" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="24"/>
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
       <c r="C13" s="24"/>
-      <c r="F13" s="27">
+      <c r="D13" s="24"/>
+      <c r="G13" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="28">
+      <c r="H13" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I13" s="35">
+      <c r="J13" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="24"/>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
       <c r="C14" s="24"/>
-      <c r="F14" s="27">
+      <c r="D14" s="24"/>
+      <c r="G14" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G14" s="28">
+      <c r="H14" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I14" s="35">
+      <c r="J14" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="24"/>
+    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36"/>
       <c r="C15" s="24"/>
-      <c r="F15" s="27">
+      <c r="D15" s="24"/>
+      <c r="G15" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G15" s="28">
+      <c r="H15" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I15" s="35">
+      <c r="J15" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
       <c r="C16" s="24"/>
-      <c r="F16" s="27">
+      <c r="D16" s="24"/>
+      <c r="G16" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G16" s="28">
+      <c r="H16" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I16" s="35">
+      <c r="J16" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>57.63</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>14.02</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="24"/>
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36"/>
       <c r="C17" s="24"/>
-      <c r="F17" s="27">
+      <c r="D17" s="24"/>
+      <c r="G17" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G17" s="28">
+      <c r="H17" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I17" s="35">
+      <c r="J17" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="24"/>
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="36"/>
       <c r="C18" s="24"/>
-      <c r="F18" s="27">
+      <c r="D18" s="24"/>
+      <c r="G18" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G18" s="28">
+      <c r="H18" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="35">
+      <c r="J18" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="24"/>
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="36"/>
       <c r="C19" s="24"/>
-      <c r="F19" s="27">
+      <c r="D19" s="24"/>
+      <c r="G19" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="28">
+      <c r="H19" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I19" s="35">
+      <c r="J19" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="24"/>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36"/>
       <c r="C20" s="24"/>
-      <c r="F20" s="27">
+      <c r="D20" s="24"/>
+      <c r="G20" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G20" s="28">
+      <c r="H20" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I20" s="35">
+      <c r="J20" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="24"/>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
       <c r="C21" s="24"/>
-      <c r="F21" s="27">
+      <c r="D21" s="24"/>
+      <c r="G21" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G21" s="28">
+      <c r="H21" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I21" s="35">
+      <c r="J21" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="24"/>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="36"/>
       <c r="C22" s="24"/>
-      <c r="F22" s="27">
+      <c r="D22" s="24"/>
+      <c r="G22" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G22" s="28">
+      <c r="H22" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I22" s="35">
+      <c r="J22" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="24"/>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="36"/>
       <c r="C23" s="24"/>
-      <c r="F23" s="27">
+      <c r="D23" s="24"/>
+      <c r="G23" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G23" s="28">
+      <c r="H23" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I23" s="35">
+      <c r="J23" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="24"/>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="36"/>
       <c r="C24" s="24"/>
-      <c r="F24" s="27">
+      <c r="D24" s="24"/>
+      <c r="G24" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G24" s="28">
+      <c r="H24" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I24" s="35">
+      <c r="J24" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="24"/>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="36"/>
       <c r="C25" s="24"/>
-      <c r="F25" s="27">
+      <c r="D25" s="24"/>
+      <c r="G25" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G25" s="28">
+      <c r="H25" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I25" s="35">
+      <c r="J25" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="24"/>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="36"/>
       <c r="C26" s="24"/>
-      <c r="F26" s="27">
+      <c r="D26" s="24"/>
+      <c r="G26" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G26" s="28">
+      <c r="H26" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I26" s="35">
+      <c r="J26" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="24"/>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="36"/>
       <c r="C27" s="24"/>
-      <c r="F27" s="27">
+      <c r="D27" s="24"/>
+      <c r="G27" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G27" s="28">
+      <c r="H27" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="35">
+      <c r="J27" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="24"/>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="36"/>
       <c r="C28" s="24"/>
-      <c r="F28" s="27">
+      <c r="D28" s="24"/>
+      <c r="G28" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G28" s="28">
+      <c r="H28" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I28" s="35">
+      <c r="J28" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="24"/>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="36"/>
       <c r="C29" s="24"/>
-      <c r="F29" s="27">
+      <c r="D29" s="24"/>
+      <c r="G29" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G29" s="28">
+      <c r="H29" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I29" s="35">
+      <c r="J29" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="24"/>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="36"/>
       <c r="C30" s="24"/>
-      <c r="F30" s="27">
+      <c r="D30" s="24"/>
+      <c r="G30" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="28">
+      <c r="H30" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I30" s="35">
+      <c r="J30" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="24"/>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="36"/>
       <c r="C31" s="24"/>
-      <c r="F31" s="27">
+      <c r="D31" s="24"/>
+      <c r="G31" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="28">
+      <c r="H31" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I31" s="35">
+      <c r="J31" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="24"/>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="36"/>
       <c r="C32" s="24"/>
-      <c r="F32" s="27">
+      <c r="D32" s="24"/>
+      <c r="G32" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="28">
+      <c r="H32" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I32" s="35">
+      <c r="J32" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="24"/>
+    <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="36"/>
       <c r="C33" s="24"/>
-      <c r="F33" s="27">
+      <c r="D33" s="24"/>
+      <c r="G33" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="28">
+      <c r="H33" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I33" s="35">
+      <c r="J33" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="24"/>
+    <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="36"/>
       <c r="C34" s="24"/>
-      <c r="F34" s="27">
+      <c r="D34" s="24"/>
+      <c r="G34" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="28">
+      <c r="H34" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I34" s="35">
+      <c r="J34" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="24"/>
+    <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="36"/>
       <c r="C35" s="24"/>
-      <c r="F35" s="27">
+      <c r="D35" s="24"/>
+      <c r="G35" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="28">
+      <c r="H35" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I35" s="35">
+      <c r="J35" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="24"/>
+    <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="36"/>
       <c r="C36" s="24"/>
-      <c r="F36" s="27">
+      <c r="D36" s="24"/>
+      <c r="G36" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="28">
+      <c r="H36" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I36" s="35">
+      <c r="J36" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="24"/>
+    <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="36"/>
       <c r="C37" s="24"/>
-      <c r="F37" s="27">
+      <c r="D37" s="24"/>
+      <c r="G37" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="28">
+      <c r="H37" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I37" s="35">
+      <c r="J37" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="24"/>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="36"/>
       <c r="C38" s="24"/>
-      <c r="F38" s="27">
+      <c r="D38" s="24"/>
+      <c r="G38" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="28">
+      <c r="H38" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I38" s="35">
+      <c r="J38" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="24"/>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="36"/>
       <c r="C39" s="24"/>
-      <c r="F39" s="27">
+      <c r="D39" s="24"/>
+      <c r="G39" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G39" s="28">
+      <c r="H39" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I39" s="35">
+      <c r="J39" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="24"/>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="36"/>
       <c r="C40" s="24"/>
-      <c r="F40" s="27">
+      <c r="D40" s="24"/>
+      <c r="G40" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G40" s="28">
+      <c r="H40" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I40" s="35">
+      <c r="J40" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="24"/>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="36"/>
       <c r="C41" s="24"/>
-      <c r="F41" s="27">
+      <c r="D41" s="24"/>
+      <c r="G41" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G41" s="28">
+      <c r="H41" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I41" s="35">
+      <c r="J41" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="24"/>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="36"/>
       <c r="C42" s="24"/>
-      <c r="F42" s="27">
+      <c r="D42" s="24"/>
+      <c r="G42" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G42" s="28">
+      <c r="H42" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I42" s="35">
+      <c r="J42" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="24"/>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="36"/>
       <c r="C43" s="24"/>
-      <c r="F43" s="27">
+      <c r="D43" s="24"/>
+      <c r="G43" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G43" s="28">
+      <c r="H43" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I43" s="35">
+      <c r="J43" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="24"/>
+    <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="36"/>
       <c r="C44" s="24"/>
-      <c r="F44" s="27">
+      <c r="D44" s="24"/>
+      <c r="G44" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G44" s="28">
+      <c r="H44" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I44" s="35">
+      <c r="J44" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="24"/>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="36"/>
       <c r="C45" s="24"/>
-      <c r="F45" s="27">
+      <c r="D45" s="24"/>
+      <c r="G45" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G45" s="28">
+      <c r="H45" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I45" s="35">
+      <c r="J45" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="24"/>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="36"/>
       <c r="C46" s="24"/>
-      <c r="F46" s="27">
+      <c r="D46" s="24"/>
+      <c r="G46" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G46" s="28">
+      <c r="H46" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I46" s="35">
+      <c r="J46" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="24"/>
+    <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="36"/>
       <c r="C47" s="24"/>
-      <c r="F47" s="27">
+      <c r="D47" s="24"/>
+      <c r="G47" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G47" s="28">
+      <c r="H47" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I47" s="35">
+      <c r="J47" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="24"/>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="36"/>
       <c r="C48" s="24"/>
-      <c r="F48" s="27">
+      <c r="D48" s="24"/>
+      <c r="G48" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G48" s="28">
+      <c r="H48" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I48" s="35">
+      <c r="J48" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="24"/>
+    <row r="49" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="36"/>
       <c r="C49" s="24"/>
-      <c r="F49" s="27">
+      <c r="D49" s="24"/>
+      <c r="G49" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G49" s="28">
+      <c r="H49" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I49" s="35">
+      <c r="J49" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="24"/>
+    <row r="50" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="36"/>
       <c r="C50" s="24"/>
-      <c r="F50" s="27">
+      <c r="D50" s="24"/>
+      <c r="G50" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G50" s="28">
+      <c r="H50" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I50" s="35">
+      <c r="J50" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="24"/>
+    <row r="51" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="36"/>
       <c r="C51" s="24"/>
-      <c r="F51" s="27">
+      <c r="D51" s="24"/>
+      <c r="G51" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G51" s="28">
+      <c r="H51" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I51" s="35">
+      <c r="J51" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="24"/>
+    <row r="52" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="36"/>
       <c r="C52" s="24"/>
-      <c r="F52" s="27">
+      <c r="D52" s="24"/>
+      <c r="G52" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G52" s="28">
+      <c r="H52" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I52" s="35">
+      <c r="J52" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="24"/>
+    <row r="53" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="36"/>
       <c r="C53" s="24"/>
-      <c r="F53" s="27">
+      <c r="D53" s="24"/>
+      <c r="G53" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G53" s="28">
+      <c r="H53" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I53" s="35">
+      <c r="J53" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="24"/>
+    <row r="54" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="36"/>
       <c r="C54" s="24"/>
-      <c r="F54" s="27">
+      <c r="D54" s="24"/>
+      <c r="G54" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G54" s="28">
+      <c r="H54" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I54" s="35">
+      <c r="J54" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="24"/>
+    <row r="55" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="36"/>
       <c r="C55" s="24"/>
-      <c r="F55" s="27">
+      <c r="D55" s="24"/>
+      <c r="G55" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G55" s="28">
+      <c r="H55" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I55" s="35">
+      <c r="J55" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="24"/>
+    <row r="56" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="36"/>
       <c r="C56" s="24"/>
-      <c r="F56" s="27">
+      <c r="D56" s="24"/>
+      <c r="G56" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G56" s="28">
+      <c r="H56" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I56" s="35">
+      <c r="J56" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="24"/>
+    <row r="57" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="36"/>
       <c r="C57" s="24"/>
-      <c r="F57" s="27">
+      <c r="D57" s="24"/>
+      <c r="G57" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G57" s="28">
+      <c r="H57" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I57" s="35">
+      <c r="J57" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="24"/>
+    <row r="58" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="36"/>
       <c r="C58" s="24"/>
-      <c r="F58" s="27">
+      <c r="D58" s="24"/>
+      <c r="G58" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G58" s="28">
+      <c r="H58" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I58" s="35">
+      <c r="J58" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="24"/>
+    <row r="59" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="36"/>
       <c r="C59" s="24"/>
-      <c r="F59" s="27">
+      <c r="D59" s="24"/>
+      <c r="G59" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G59" s="28">
+      <c r="H59" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I59" s="35">
+      <c r="J59" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="24"/>
+    <row r="60" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="36"/>
       <c r="C60" s="24"/>
-      <c r="F60" s="27">
+      <c r="D60" s="24"/>
+      <c r="G60" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G60" s="28">
+      <c r="H60" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I60" s="35">
+      <c r="J60" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="24"/>
+    <row r="61" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="36"/>
       <c r="C61" s="24"/>
-      <c r="F61" s="27">
+      <c r="D61" s="24"/>
+      <c r="G61" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G61" s="28">
+      <c r="H61" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I61" s="35">
+      <c r="J61" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="24"/>
+    <row r="62" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="36"/>
       <c r="C62" s="24"/>
-      <c r="F62" s="27">
+      <c r="D62" s="24"/>
+      <c r="G62" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G62" s="28">
+      <c r="H62" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I62" s="35">
+      <c r="J62" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="24"/>
+    <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="36"/>
       <c r="C63" s="24"/>
-      <c r="F63" s="27">
+      <c r="D63" s="24"/>
+      <c r="G63" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G63" s="28">
+      <c r="H63" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I63" s="35">
+      <c r="J63" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="24"/>
+    <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="36"/>
       <c r="C64" s="24"/>
-      <c r="F64" s="27">
+      <c r="D64" s="24"/>
+      <c r="G64" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G64" s="28">
+      <c r="H64" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I64" s="35">
+      <c r="J64" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="24"/>
+    <row r="65" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="36"/>
       <c r="C65" s="24"/>
-      <c r="F65" s="27">
+      <c r="D65" s="24"/>
+      <c r="G65" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G65" s="28">
+      <c r="H65" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I65" s="35">
+      <c r="J65" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="24"/>
+    <row r="66" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="36"/>
       <c r="C66" s="24"/>
-      <c r="F66" s="27">
+      <c r="D66" s="24"/>
+      <c r="G66" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G66" s="28">
+      <c r="H66" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I66" s="35">
+      <c r="J66" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="24"/>
+    <row r="67" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="36"/>
       <c r="C67" s="24"/>
-      <c r="F67" s="27">
+      <c r="D67" s="24"/>
+      <c r="G67" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G67" s="28">
+      <c r="H67" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I67" s="35">
+      <c r="J67" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="24"/>
+    <row r="68" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="36"/>
       <c r="C68" s="24"/>
-      <c r="F68" s="27">
+      <c r="D68" s="24"/>
+      <c r="G68" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G68" s="28">
+      <c r="H68" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I68" s="35">
+      <c r="J68" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="24"/>
+    <row r="69" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="36"/>
       <c r="C69" s="24"/>
-      <c r="F69" s="27">
+      <c r="D69" s="24"/>
+      <c r="G69" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G69" s="28">
+      <c r="H69" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I69" s="35">
+      <c r="J69" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="24"/>
+    <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="36"/>
       <c r="C70" s="24"/>
-      <c r="F70" s="27">
+      <c r="D70" s="24"/>
+      <c r="G70" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G70" s="28">
+      <c r="H70" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I70" s="35">
+      <c r="J70" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="24"/>
+    <row r="71" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="36"/>
       <c r="C71" s="24"/>
-      <c r="F71" s="27">
-        <f t="shared" ref="F71:F134" si="6">IF(D71&lt;&gt;0,B71/D71,)</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="28">
-        <f t="shared" ref="G71:G134" si="7">IF(C71&lt;&gt;0,B71/C71,)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="35">
-        <f t="shared" ref="I71:I134" si="8">IF( D71&lt;&gt;0,C71/D71,)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="G71" s="27">
+        <f t="shared" ref="G71:G134" si="6">IF(E71&lt;&gt;0,C71/E71,)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="28">
+        <f t="shared" ref="H71:H134" si="7">IF(D71&lt;&gt;0,C71/D71,)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="35">
+        <f t="shared" ref="J71:J134" si="8">IF( E71&lt;&gt;0,D71/E71,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="36"/>
       <c r="C72" s="24"/>
-      <c r="F72" s="27">
+      <c r="D72" s="24"/>
+      <c r="G72" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G72" s="28">
+      <c r="H72" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I72" s="35">
+      <c r="J72" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="24"/>
+    <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="36"/>
       <c r="C73" s="24"/>
-      <c r="F73" s="27">
+      <c r="D73" s="24"/>
+      <c r="G73" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G73" s="28">
+      <c r="H73" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I73" s="35">
+      <c r="J73" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="24"/>
+    <row r="74" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="36"/>
       <c r="C74" s="24"/>
-      <c r="F74" s="27">
+      <c r="D74" s="24"/>
+      <c r="G74" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G74" s="28">
+      <c r="H74" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I74" s="35">
+      <c r="J74" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="24"/>
+    <row r="75" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="36"/>
       <c r="C75" s="24"/>
-      <c r="F75" s="27">
+      <c r="D75" s="24"/>
+      <c r="G75" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G75" s="28">
+      <c r="H75" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I75" s="35">
+      <c r="J75" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="24"/>
+    <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="36"/>
       <c r="C76" s="24"/>
-      <c r="F76" s="27">
+      <c r="D76" s="24"/>
+      <c r="G76" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G76" s="28">
+      <c r="H76" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I76" s="35">
+      <c r="J76" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="24"/>
+    <row r="77" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="36"/>
       <c r="C77" s="24"/>
-      <c r="F77" s="27">
+      <c r="D77" s="24"/>
+      <c r="G77" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G77" s="28">
+      <c r="H77" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I77" s="35">
+      <c r="J77" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="24"/>
+    <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="36"/>
       <c r="C78" s="24"/>
-      <c r="F78" s="27">
+      <c r="D78" s="24"/>
+      <c r="G78" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G78" s="28">
+      <c r="H78" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I78" s="35">
+      <c r="J78" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="24"/>
+    <row r="79" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="36"/>
       <c r="C79" s="24"/>
-      <c r="F79" s="27">
+      <c r="D79" s="24"/>
+      <c r="G79" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G79" s="28">
+      <c r="H79" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I79" s="35">
+      <c r="J79" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="24"/>
+    <row r="80" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="36"/>
       <c r="C80" s="24"/>
-      <c r="F80" s="27">
+      <c r="D80" s="24"/>
+      <c r="G80" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G80" s="28">
+      <c r="H80" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I80" s="35">
+      <c r="J80" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="24"/>
+    <row r="81" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="36"/>
       <c r="C81" s="24"/>
-      <c r="F81" s="27">
+      <c r="D81" s="24"/>
+      <c r="G81" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G81" s="28">
+      <c r="H81" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I81" s="35">
+      <c r="J81" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
-      <c r="B82" s="24"/>
+    <row r="82" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="36"/>
       <c r="C82" s="24"/>
-      <c r="F82" s="27">
+      <c r="D82" s="24"/>
+      <c r="G82" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G82" s="28">
+      <c r="H82" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I82" s="35">
+      <c r="J82" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="24"/>
+    <row r="83" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="36"/>
       <c r="C83" s="24"/>
-      <c r="F83" s="27">
+      <c r="D83" s="24"/>
+      <c r="G83" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G83" s="28">
+      <c r="H83" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I83" s="35">
+      <c r="J83" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="24"/>
+    <row r="84" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="36"/>
       <c r="C84" s="24"/>
-      <c r="F84" s="27">
+      <c r="D84" s="24"/>
+      <c r="G84" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G84" s="28">
+      <c r="H84" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I84" s="35">
+      <c r="J84" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
-      <c r="B85" s="24"/>
+    <row r="85" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="36"/>
       <c r="C85" s="24"/>
-      <c r="F85" s="27">
+      <c r="D85" s="24"/>
+      <c r="G85" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G85" s="28">
+      <c r="H85" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I85" s="35">
+      <c r="J85" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="24"/>
+    <row r="86" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="36"/>
       <c r="C86" s="24"/>
-      <c r="F86" s="27">
+      <c r="D86" s="24"/>
+      <c r="G86" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G86" s="28">
+      <c r="H86" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I86" s="35">
+      <c r="J86" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="24"/>
+    <row r="87" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="36"/>
       <c r="C87" s="24"/>
-      <c r="F87" s="27">
+      <c r="D87" s="24"/>
+      <c r="G87" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G87" s="28">
+      <c r="H87" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I87" s="35">
+      <c r="J87" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="24"/>
+    <row r="88" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="36"/>
       <c r="C88" s="24"/>
-      <c r="F88" s="27">
+      <c r="D88" s="24"/>
+      <c r="G88" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G88" s="28">
+      <c r="H88" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I88" s="35">
+      <c r="J88" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="24"/>
+    <row r="89" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="36"/>
       <c r="C89" s="24"/>
-      <c r="F89" s="27">
+      <c r="D89" s="24"/>
+      <c r="G89" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G89" s="28">
+      <c r="H89" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I89" s="35">
+      <c r="J89" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
-      <c r="B90" s="24"/>
+    <row r="90" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="36"/>
       <c r="C90" s="24"/>
-      <c r="F90" s="27">
+      <c r="D90" s="24"/>
+      <c r="G90" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G90" s="28">
+      <c r="H90" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I90" s="35">
+      <c r="J90" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="24"/>
+    <row r="91" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="36"/>
       <c r="C91" s="24"/>
-      <c r="F91" s="27">
+      <c r="D91" s="24"/>
+      <c r="G91" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G91" s="28">
+      <c r="H91" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I91" s="35">
+      <c r="J91" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="24"/>
+    <row r="92" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="36"/>
       <c r="C92" s="24"/>
-      <c r="F92" s="27">
+      <c r="D92" s="24"/>
+      <c r="G92" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G92" s="28">
+      <c r="H92" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I92" s="35">
+      <c r="J92" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="24"/>
+    <row r="93" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="36"/>
       <c r="C93" s="24"/>
-      <c r="F93" s="27">
+      <c r="D93" s="24"/>
+      <c r="G93" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G93" s="28">
+      <c r="H93" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I93" s="35">
+      <c r="J93" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="24"/>
+    <row r="94" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="36"/>
       <c r="C94" s="24"/>
-      <c r="F94" s="27">
+      <c r="D94" s="24"/>
+      <c r="G94" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G94" s="28">
+      <c r="H94" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I94" s="35">
+      <c r="J94" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="24"/>
+    <row r="95" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="36"/>
       <c r="C95" s="24"/>
-      <c r="F95" s="27">
+      <c r="D95" s="24"/>
+      <c r="G95" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G95" s="28">
+      <c r="H95" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I95" s="35">
+      <c r="J95" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="24"/>
+    <row r="96" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="36"/>
       <c r="C96" s="24"/>
-      <c r="F96" s="27">
+      <c r="D96" s="24"/>
+      <c r="G96" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G96" s="28">
+      <c r="H96" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I96" s="35">
+      <c r="J96" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="24"/>
+    <row r="97" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="36"/>
       <c r="C97" s="24"/>
-      <c r="F97" s="27">
+      <c r="D97" s="24"/>
+      <c r="G97" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G97" s="28">
+      <c r="H97" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I97" s="35">
+      <c r="J97" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
-      <c r="B98" s="24"/>
+    <row r="98" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="36"/>
       <c r="C98" s="24"/>
-      <c r="F98" s="27">
+      <c r="D98" s="24"/>
+      <c r="G98" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G98" s="28">
+      <c r="H98" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I98" s="35">
+      <c r="J98" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="24"/>
+    <row r="99" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="36"/>
       <c r="C99" s="24"/>
-      <c r="F99" s="27">
+      <c r="D99" s="24"/>
+      <c r="G99" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G99" s="28">
+      <c r="H99" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I99" s="35">
+      <c r="J99" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="24"/>
+    <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="36"/>
       <c r="C100" s="24"/>
-      <c r="F100" s="27">
+      <c r="D100" s="24"/>
+      <c r="G100" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G100" s="28">
+      <c r="H100" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I100" s="35">
+      <c r="J100" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
-      <c r="B101" s="24"/>
+    <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="36"/>
       <c r="C101" s="24"/>
-      <c r="F101" s="27">
+      <c r="D101" s="24"/>
+      <c r="G101" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G101" s="28">
+      <c r="H101" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I101" s="35">
+      <c r="J101" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="24"/>
+    <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="36"/>
       <c r="C102" s="24"/>
-      <c r="F102" s="27">
+      <c r="D102" s="24"/>
+      <c r="G102" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G102" s="28">
+      <c r="H102" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I102" s="35">
+      <c r="J102" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="24"/>
+    <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="36"/>
       <c r="C103" s="24"/>
-      <c r="F103" s="27">
+      <c r="D103" s="24"/>
+      <c r="G103" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G103" s="28">
+      <c r="H103" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I103" s="35">
+      <c r="J103" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="24"/>
+    <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="36"/>
       <c r="C104" s="24"/>
-      <c r="F104" s="27">
+      <c r="D104" s="24"/>
+      <c r="G104" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G104" s="28">
+      <c r="H104" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I104" s="35">
+      <c r="J104" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="24"/>
+    <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="36"/>
       <c r="C105" s="24"/>
-      <c r="F105" s="27">
+      <c r="D105" s="24"/>
+      <c r="G105" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G105" s="28">
+      <c r="H105" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I105" s="35">
+      <c r="J105" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="24"/>
+    <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="36"/>
       <c r="C106" s="24"/>
-      <c r="F106" s="27">
+      <c r="D106" s="24"/>
+      <c r="G106" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G106" s="28">
+      <c r="H106" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I106" s="35">
+      <c r="J106" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="24"/>
+    <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="36"/>
       <c r="C107" s="24"/>
-      <c r="F107" s="27">
+      <c r="D107" s="24"/>
+      <c r="G107" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G107" s="28">
+      <c r="H107" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I107" s="35">
+      <c r="J107" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
-      <c r="B108" s="24"/>
+    <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="36"/>
       <c r="C108" s="24"/>
-      <c r="F108" s="27">
+      <c r="D108" s="24"/>
+      <c r="G108" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G108" s="28">
+      <c r="H108" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I108" s="35">
+      <c r="J108" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
-      <c r="B109" s="24"/>
+    <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="36"/>
       <c r="C109" s="24"/>
-      <c r="F109" s="27">
+      <c r="D109" s="24"/>
+      <c r="G109" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G109" s="28">
+      <c r="H109" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I109" s="35">
+      <c r="J109" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="24"/>
+    <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="36"/>
       <c r="C110" s="24"/>
-      <c r="F110" s="27">
+      <c r="D110" s="24"/>
+      <c r="G110" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G110" s="28">
+      <c r="H110" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I110" s="35">
+      <c r="J110" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="24"/>
+    <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="36"/>
       <c r="C111" s="24"/>
-      <c r="F111" s="27">
+      <c r="D111" s="24"/>
+      <c r="G111" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G111" s="28">
+      <c r="H111" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I111" s="35">
+      <c r="J111" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="24"/>
+    <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="36"/>
       <c r="C112" s="24"/>
-      <c r="F112" s="27">
+      <c r="D112" s="24"/>
+      <c r="G112" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G112" s="28">
+      <c r="H112" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I112" s="35">
+      <c r="J112" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="24"/>
+    <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="36"/>
       <c r="C113" s="24"/>
-      <c r="F113" s="27">
+      <c r="D113" s="24"/>
+      <c r="G113" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G113" s="28">
+      <c r="H113" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I113" s="35">
+      <c r="J113" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="36"/>
-      <c r="B114" s="24"/>
+    <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="36"/>
       <c r="C114" s="24"/>
-      <c r="F114" s="27">
+      <c r="D114" s="24"/>
+      <c r="G114" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G114" s="28">
+      <c r="H114" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I114" s="35">
+      <c r="J114" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="36"/>
-      <c r="B115" s="24"/>
+    <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="36"/>
       <c r="C115" s="24"/>
-      <c r="F115" s="27">
+      <c r="D115" s="24"/>
+      <c r="G115" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G115" s="28">
+      <c r="H115" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I115" s="35">
+      <c r="J115" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
-      <c r="B116" s="24"/>
+    <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="36"/>
       <c r="C116" s="24"/>
-      <c r="F116" s="27">
+      <c r="D116" s="24"/>
+      <c r="G116" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G116" s="28">
+      <c r="H116" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I116" s="35">
+      <c r="J116" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="36"/>
-      <c r="B117" s="24"/>
+    <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="36"/>
       <c r="C117" s="24"/>
-      <c r="F117" s="27">
+      <c r="D117" s="24"/>
+      <c r="G117" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G117" s="28">
+      <c r="H117" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I117" s="35">
+      <c r="J117" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="24"/>
+    <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="36"/>
       <c r="C118" s="24"/>
-      <c r="F118" s="27">
+      <c r="D118" s="24"/>
+      <c r="G118" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G118" s="28">
+      <c r="H118" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I118" s="35">
+      <c r="J118" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="24"/>
+    <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="36"/>
       <c r="C119" s="24"/>
-      <c r="F119" s="27">
+      <c r="D119" s="24"/>
+      <c r="G119" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G119" s="28">
+      <c r="H119" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I119" s="35">
+      <c r="J119" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="24"/>
+    <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="36"/>
       <c r="C120" s="24"/>
-      <c r="F120" s="27">
+      <c r="D120" s="24"/>
+      <c r="G120" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G120" s="28">
+      <c r="H120" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I120" s="35">
+      <c r="J120" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="24"/>
+    <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="36"/>
       <c r="C121" s="24"/>
-      <c r="F121" s="27">
+      <c r="D121" s="24"/>
+      <c r="G121" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G121" s="28">
+      <c r="H121" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I121" s="35">
+      <c r="J121" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="24"/>
+    <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="36"/>
       <c r="C122" s="24"/>
-      <c r="F122" s="27">
+      <c r="D122" s="24"/>
+      <c r="G122" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G122" s="28">
+      <c r="H122" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I122" s="35">
+      <c r="J122" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
-      <c r="B123" s="24"/>
+    <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="36"/>
       <c r="C123" s="24"/>
-      <c r="F123" s="27">
+      <c r="D123" s="24"/>
+      <c r="G123" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G123" s="28">
+      <c r="H123" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I123" s="35">
+      <c r="J123" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="24"/>
+    <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="36"/>
       <c r="C124" s="24"/>
-      <c r="F124" s="27">
+      <c r="D124" s="24"/>
+      <c r="G124" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G124" s="28">
+      <c r="H124" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I124" s="35">
+      <c r="J124" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="24"/>
+    <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="36"/>
       <c r="C125" s="24"/>
-      <c r="F125" s="27">
+      <c r="D125" s="24"/>
+      <c r="G125" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G125" s="28">
+      <c r="H125" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I125" s="35">
+      <c r="J125" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="36"/>
-      <c r="B126" s="24"/>
+    <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="36"/>
       <c r="C126" s="24"/>
-      <c r="F126" s="27">
+      <c r="D126" s="24"/>
+      <c r="G126" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G126" s="28">
+      <c r="H126" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I126" s="35">
+      <c r="J126" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="24"/>
+    <row r="127" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="36"/>
       <c r="C127" s="24"/>
-      <c r="F127" s="27">
+      <c r="D127" s="24"/>
+      <c r="G127" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G127" s="28">
+      <c r="H127" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I127" s="35">
+      <c r="J127" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36"/>
-      <c r="B128" s="24"/>
+    <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="36"/>
       <c r="C128" s="24"/>
-      <c r="F128" s="27">
+      <c r="D128" s="24"/>
+      <c r="G128" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G128" s="28">
+      <c r="H128" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I128" s="35">
+      <c r="J128" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="36"/>
-      <c r="B129" s="24"/>
+    <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="36"/>
       <c r="C129" s="24"/>
-      <c r="F129" s="27">
+      <c r="D129" s="24"/>
+      <c r="G129" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G129" s="28">
+      <c r="H129" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I129" s="35">
+      <c r="J129" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="36"/>
-      <c r="B130" s="24"/>
+    <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="36"/>
       <c r="C130" s="24"/>
-      <c r="F130" s="27">
+      <c r="D130" s="24"/>
+      <c r="G130" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G130" s="28">
+      <c r="H130" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I130" s="35">
+      <c r="J130" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="36"/>
-      <c r="B131" s="24"/>
+    <row r="131" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="36"/>
       <c r="C131" s="24"/>
-      <c r="F131" s="27">
+      <c r="D131" s="24"/>
+      <c r="G131" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G131" s="28">
+      <c r="H131" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I131" s="35">
+      <c r="J131" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="36"/>
-      <c r="B132" s="24"/>
+    <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="36"/>
       <c r="C132" s="24"/>
-      <c r="F132" s="27">
+      <c r="D132" s="24"/>
+      <c r="G132" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G132" s="28">
+      <c r="H132" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I132" s="35">
+      <c r="J132" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="36"/>
-      <c r="B133" s="24"/>
+    <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="36"/>
       <c r="C133" s="24"/>
-      <c r="F133" s="27">
+      <c r="D133" s="24"/>
+      <c r="G133" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G133" s="28">
+      <c r="H133" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I133" s="35">
+      <c r="J133" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="36"/>
-      <c r="B134" s="24"/>
+    <row r="134" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="36"/>
       <c r="C134" s="24"/>
-      <c r="F134" s="27">
+      <c r="D134" s="24"/>
+      <c r="G134" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G134" s="28">
+      <c r="H134" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I134" s="35">
+      <c r="J134" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="36"/>
-      <c r="B135" s="24"/>
+    <row r="135" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="36"/>
       <c r="C135" s="24"/>
-      <c r="F135" s="27">
-        <f t="shared" ref="F135:F198" si="9">IF(D135&lt;&gt;0,B135/D135,)</f>
-        <v>0</v>
-      </c>
-      <c r="G135" s="28">
-        <f t="shared" ref="G135:G198" si="10">IF(C135&lt;&gt;0,B135/C135,)</f>
-        <v>0</v>
-      </c>
-      <c r="I135" s="35">
-        <f t="shared" ref="I135:I198" si="11">IF( D135&lt;&gt;0,C135/D135,)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="36"/>
-      <c r="B136" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="G135" s="27">
+        <f t="shared" ref="G135:G198" si="9">IF(E135&lt;&gt;0,C135/E135,)</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="28">
+        <f t="shared" ref="H135:H198" si="10">IF(D135&lt;&gt;0,C135/D135,)</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="35">
+        <f t="shared" ref="J135:J198" si="11">IF( E135&lt;&gt;0,D135/E135,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="36"/>
       <c r="C136" s="24"/>
-      <c r="F136" s="27">
+      <c r="D136" s="24"/>
+      <c r="G136" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G136" s="28">
+      <c r="H136" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I136" s="35">
+      <c r="J136" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
-      <c r="B137" s="24"/>
+    <row r="137" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="36"/>
       <c r="C137" s="24"/>
-      <c r="F137" s="27">
+      <c r="D137" s="24"/>
+      <c r="G137" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G137" s="28">
+      <c r="H137" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I137" s="35">
+      <c r="J137" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="24"/>
+    <row r="138" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="36"/>
       <c r="C138" s="24"/>
-      <c r="F138" s="27">
+      <c r="D138" s="24"/>
+      <c r="G138" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G138" s="28">
+      <c r="H138" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I138" s="35">
+      <c r="J138" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="24"/>
+    <row r="139" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="36"/>
       <c r="C139" s="24"/>
-      <c r="F139" s="27">
+      <c r="D139" s="24"/>
+      <c r="G139" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G139" s="28">
+      <c r="H139" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I139" s="35">
+      <c r="J139" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="24"/>
+    <row r="140" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="36"/>
       <c r="C140" s="24"/>
-      <c r="F140" s="27">
+      <c r="D140" s="24"/>
+      <c r="G140" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G140" s="28">
+      <c r="H140" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I140" s="35">
+      <c r="J140" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="24"/>
+    <row r="141" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="36"/>
       <c r="C141" s="24"/>
-      <c r="F141" s="27">
+      <c r="D141" s="24"/>
+      <c r="G141" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G141" s="28">
+      <c r="H141" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I141" s="35">
+      <c r="J141" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="24"/>
+    <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="36"/>
       <c r="C142" s="24"/>
-      <c r="F142" s="27">
+      <c r="D142" s="24"/>
+      <c r="G142" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G142" s="28">
+      <c r="H142" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I142" s="35">
+      <c r="J142" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="36"/>
-      <c r="B143" s="24"/>
+    <row r="143" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="36"/>
       <c r="C143" s="24"/>
-      <c r="F143" s="27">
+      <c r="D143" s="24"/>
+      <c r="G143" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G143" s="28">
+      <c r="H143" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I143" s="35">
+      <c r="J143" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="24"/>
+    <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="36"/>
       <c r="C144" s="24"/>
-      <c r="F144" s="27">
+      <c r="D144" s="24"/>
+      <c r="G144" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G144" s="28">
+      <c r="H144" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I144" s="35">
+      <c r="J144" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="36"/>
-      <c r="B145" s="24"/>
+    <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="36"/>
       <c r="C145" s="24"/>
-      <c r="F145" s="27">
+      <c r="D145" s="24"/>
+      <c r="G145" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G145" s="28">
+      <c r="H145" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I145" s="35">
+      <c r="J145" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="36"/>
-      <c r="B146" s="24"/>
+    <row r="146" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="36"/>
       <c r="C146" s="24"/>
-      <c r="F146" s="27">
+      <c r="D146" s="24"/>
+      <c r="G146" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G146" s="28">
+      <c r="H146" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I146" s="35">
+      <c r="J146" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="36"/>
-      <c r="B147" s="24"/>
+    <row r="147" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="36"/>
       <c r="C147" s="24"/>
-      <c r="F147" s="27">
+      <c r="D147" s="24"/>
+      <c r="G147" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G147" s="28">
+      <c r="H147" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I147" s="35">
+      <c r="J147" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="36"/>
-      <c r="B148" s="24"/>
+    <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="36"/>
       <c r="C148" s="24"/>
-      <c r="F148" s="27">
+      <c r="D148" s="24"/>
+      <c r="G148" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G148" s="28">
+      <c r="H148" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I148" s="35">
+      <c r="J148" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="36"/>
-      <c r="B149" s="24"/>
+    <row r="149" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="36"/>
       <c r="C149" s="24"/>
-      <c r="F149" s="27">
+      <c r="D149" s="24"/>
+      <c r="G149" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G149" s="28">
+      <c r="H149" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I149" s="35">
+      <c r="J149" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="36"/>
-      <c r="B150" s="24"/>
+    <row r="150" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="36"/>
       <c r="C150" s="24"/>
-      <c r="F150" s="27">
+      <c r="D150" s="24"/>
+      <c r="G150" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G150" s="28">
+      <c r="H150" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I150" s="35">
+      <c r="J150" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="36"/>
-      <c r="B151" s="24"/>
+    <row r="151" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="36"/>
       <c r="C151" s="24"/>
-      <c r="F151" s="27">
+      <c r="D151" s="24"/>
+      <c r="G151" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G151" s="28">
+      <c r="H151" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I151" s="35">
+      <c r="J151" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="36"/>
-      <c r="B152" s="24"/>
+    <row r="152" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="36"/>
       <c r="C152" s="24"/>
-      <c r="F152" s="27">
+      <c r="D152" s="24"/>
+      <c r="G152" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G152" s="28">
+      <c r="H152" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I152" s="35">
+      <c r="J152" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="36"/>
-      <c r="B153" s="24"/>
+    <row r="153" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="36"/>
       <c r="C153" s="24"/>
-      <c r="F153" s="27">
+      <c r="D153" s="24"/>
+      <c r="G153" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G153" s="28">
+      <c r="H153" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I153" s="35">
+      <c r="J153" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="36"/>
-      <c r="B154" s="24"/>
+    <row r="154" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="36"/>
       <c r="C154" s="24"/>
-      <c r="F154" s="27">
+      <c r="D154" s="24"/>
+      <c r="G154" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G154" s="28">
+      <c r="H154" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I154" s="35">
+      <c r="J154" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="36"/>
-      <c r="B155" s="24"/>
+    <row r="155" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="36"/>
       <c r="C155" s="24"/>
-      <c r="F155" s="27">
+      <c r="D155" s="24"/>
+      <c r="G155" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G155" s="28">
+      <c r="H155" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I155" s="35">
+      <c r="J155" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="36"/>
-      <c r="B156" s="24"/>
+    <row r="156" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="36"/>
       <c r="C156" s="24"/>
-      <c r="F156" s="27">
+      <c r="D156" s="24"/>
+      <c r="G156" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G156" s="28">
+      <c r="H156" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I156" s="35">
+      <c r="J156" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="36"/>
-      <c r="B157" s="24"/>
+    <row r="157" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="36"/>
       <c r="C157" s="24"/>
-      <c r="F157" s="27">
+      <c r="D157" s="24"/>
+      <c r="G157" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G157" s="28">
+      <c r="H157" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I157" s="35">
+      <c r="J157" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="36"/>
-      <c r="B158" s="24"/>
+    <row r="158" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="36"/>
       <c r="C158" s="24"/>
-      <c r="F158" s="27">
+      <c r="D158" s="24"/>
+      <c r="G158" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G158" s="28">
+      <c r="H158" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I158" s="35">
+      <c r="J158" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="36"/>
-      <c r="B159" s="24"/>
+    <row r="159" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="36"/>
       <c r="C159" s="24"/>
-      <c r="F159" s="27">
+      <c r="D159" s="24"/>
+      <c r="G159" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G159" s="28">
+      <c r="H159" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I159" s="35">
+      <c r="J159" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="36"/>
-      <c r="B160" s="24"/>
+    <row r="160" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="36"/>
       <c r="C160" s="24"/>
-      <c r="F160" s="27">
+      <c r="D160" s="24"/>
+      <c r="G160" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G160" s="28">
+      <c r="H160" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I160" s="35">
+      <c r="J160" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="36"/>
-      <c r="B161" s="24"/>
+    <row r="161" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="36"/>
       <c r="C161" s="24"/>
-      <c r="F161" s="27">
+      <c r="D161" s="24"/>
+      <c r="G161" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G161" s="28">
+      <c r="H161" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I161" s="35">
+      <c r="J161" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="36"/>
-      <c r="B162" s="24"/>
+    <row r="162" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="36"/>
       <c r="C162" s="24"/>
-      <c r="F162" s="27">
+      <c r="D162" s="24"/>
+      <c r="G162" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G162" s="28">
+      <c r="H162" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I162" s="35">
+      <c r="J162" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="36"/>
-      <c r="B163" s="24"/>
+    <row r="163" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="36"/>
       <c r="C163" s="24"/>
-      <c r="F163" s="27">
+      <c r="D163" s="24"/>
+      <c r="G163" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G163" s="28">
+      <c r="H163" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I163" s="35">
+      <c r="J163" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="36"/>
-      <c r="B164" s="24"/>
+    <row r="164" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="36"/>
       <c r="C164" s="24"/>
-      <c r="F164" s="27">
+      <c r="D164" s="24"/>
+      <c r="G164" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G164" s="28">
+      <c r="H164" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I164" s="35">
+      <c r="J164" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="36"/>
-      <c r="B165" s="24"/>
+    <row r="165" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="36"/>
       <c r="C165" s="24"/>
-      <c r="F165" s="27">
+      <c r="D165" s="24"/>
+      <c r="G165" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G165" s="28">
+      <c r="H165" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I165" s="35">
+      <c r="J165" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="36"/>
-      <c r="B166" s="24"/>
+    <row r="166" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="36"/>
       <c r="C166" s="24"/>
-      <c r="F166" s="27">
+      <c r="D166" s="24"/>
+      <c r="G166" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G166" s="28">
+      <c r="H166" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I166" s="35">
+      <c r="J166" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="36"/>
-      <c r="B167" s="24"/>
+    <row r="167" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="36"/>
       <c r="C167" s="24"/>
-      <c r="F167" s="27">
+      <c r="D167" s="24"/>
+      <c r="G167" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G167" s="28">
+      <c r="H167" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I167" s="35">
+      <c r="J167" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="36"/>
-      <c r="B168" s="24"/>
+    <row r="168" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="36"/>
       <c r="C168" s="24"/>
-      <c r="F168" s="27">
+      <c r="D168" s="24"/>
+      <c r="G168" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G168" s="28">
+      <c r="H168" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I168" s="35">
+      <c r="J168" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="36"/>
-      <c r="B169" s="24"/>
+    <row r="169" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="36"/>
       <c r="C169" s="24"/>
-      <c r="F169" s="27">
+      <c r="D169" s="24"/>
+      <c r="G169" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G169" s="28">
+      <c r="H169" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I169" s="35">
+      <c r="J169" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="36"/>
-      <c r="B170" s="24"/>
+    <row r="170" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="36"/>
       <c r="C170" s="24"/>
-      <c r="F170" s="27">
+      <c r="D170" s="24"/>
+      <c r="G170" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G170" s="28">
+      <c r="H170" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I170" s="35">
+      <c r="J170" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="36"/>
-      <c r="B171" s="24"/>
+    <row r="171" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="36"/>
       <c r="C171" s="24"/>
-      <c r="F171" s="27">
+      <c r="D171" s="24"/>
+      <c r="G171" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G171" s="28">
+      <c r="H171" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I171" s="35">
+      <c r="J171" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="36"/>
-      <c r="B172" s="24"/>
+    <row r="172" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="36"/>
       <c r="C172" s="24"/>
-      <c r="F172" s="27">
+      <c r="D172" s="24"/>
+      <c r="G172" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G172" s="28">
+      <c r="H172" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I172" s="35">
+      <c r="J172" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="36"/>
-      <c r="B173" s="24"/>
+    <row r="173" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="36"/>
       <c r="C173" s="24"/>
-      <c r="F173" s="27">
+      <c r="D173" s="24"/>
+      <c r="G173" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G173" s="28">
+      <c r="H173" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I173" s="35">
+      <c r="J173" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="36"/>
-      <c r="B174" s="24"/>
+    <row r="174" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="36"/>
       <c r="C174" s="24"/>
-      <c r="F174" s="27">
+      <c r="D174" s="24"/>
+      <c r="G174" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G174" s="28">
+      <c r="H174" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I174" s="35">
+      <c r="J174" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="36"/>
-      <c r="B175" s="24"/>
+    <row r="175" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="36"/>
       <c r="C175" s="24"/>
-      <c r="F175" s="27">
+      <c r="D175" s="24"/>
+      <c r="G175" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G175" s="28">
+      <c r="H175" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I175" s="35">
+      <c r="J175" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="36"/>
-      <c r="B176" s="24"/>
+    <row r="176" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="36"/>
       <c r="C176" s="24"/>
-      <c r="F176" s="27">
+      <c r="D176" s="24"/>
+      <c r="G176" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G176" s="28">
+      <c r="H176" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I176" s="35">
+      <c r="J176" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="36"/>
-      <c r="B177" s="24"/>
+    <row r="177" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="36"/>
       <c r="C177" s="24"/>
-      <c r="F177" s="27">
+      <c r="D177" s="24"/>
+      <c r="G177" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G177" s="28">
+      <c r="H177" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I177" s="35">
+      <c r="J177" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="36"/>
-      <c r="B178" s="24"/>
+    <row r="178" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="36"/>
       <c r="C178" s="24"/>
-      <c r="F178" s="27">
+      <c r="D178" s="24"/>
+      <c r="G178" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G178" s="28">
+      <c r="H178" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I178" s="35">
+      <c r="J178" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="36"/>
-      <c r="B179" s="24"/>
+    <row r="179" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="36"/>
       <c r="C179" s="24"/>
-      <c r="F179" s="27">
+      <c r="D179" s="24"/>
+      <c r="G179" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G179" s="28">
+      <c r="H179" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I179" s="35">
+      <c r="J179" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="36"/>
-      <c r="B180" s="24"/>
+    <row r="180" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="36"/>
       <c r="C180" s="24"/>
-      <c r="F180" s="27">
+      <c r="D180" s="24"/>
+      <c r="G180" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G180" s="28">
+      <c r="H180" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I180" s="35">
+      <c r="J180" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="36"/>
-      <c r="B181" s="24"/>
+    <row r="181" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="36"/>
       <c r="C181" s="24"/>
-      <c r="F181" s="27">
+      <c r="D181" s="24"/>
+      <c r="G181" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G181" s="28">
+      <c r="H181" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I181" s="35">
+      <c r="J181" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="36"/>
-      <c r="B182" s="24"/>
+    <row r="182" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="36"/>
       <c r="C182" s="24"/>
-      <c r="F182" s="27">
+      <c r="D182" s="24"/>
+      <c r="G182" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G182" s="28">
+      <c r="H182" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I182" s="35">
+      <c r="J182" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="36"/>
-      <c r="B183" s="24"/>
+    <row r="183" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="36"/>
       <c r="C183" s="24"/>
-      <c r="F183" s="27">
+      <c r="D183" s="24"/>
+      <c r="G183" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G183" s="28">
+      <c r="H183" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I183" s="35">
+      <c r="J183" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="36"/>
-      <c r="B184" s="24"/>
+    <row r="184" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="36"/>
       <c r="C184" s="24"/>
-      <c r="F184" s="27">
+      <c r="D184" s="24"/>
+      <c r="G184" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G184" s="28">
+      <c r="H184" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I184" s="35">
+      <c r="J184" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="36"/>
-      <c r="B185" s="24"/>
+    <row r="185" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="36"/>
       <c r="C185" s="24"/>
-      <c r="F185" s="27">
+      <c r="D185" s="24"/>
+      <c r="G185" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G185" s="28">
+      <c r="H185" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I185" s="35">
+      <c r="J185" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="36"/>
-      <c r="B186" s="24"/>
+    <row r="186" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="36"/>
       <c r="C186" s="24"/>
-      <c r="F186" s="27">
+      <c r="D186" s="24"/>
+      <c r="G186" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G186" s="28">
+      <c r="H186" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I186" s="35">
+      <c r="J186" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="36"/>
-      <c r="B187" s="24"/>
+    <row r="187" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="36"/>
       <c r="C187" s="24"/>
-      <c r="F187" s="27">
+      <c r="D187" s="24"/>
+      <c r="G187" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G187" s="28">
+      <c r="H187" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I187" s="35">
+      <c r="J187" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="36"/>
-      <c r="B188" s="24"/>
+    <row r="188" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="36"/>
       <c r="C188" s="24"/>
-      <c r="F188" s="27">
+      <c r="D188" s="24"/>
+      <c r="G188" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G188" s="28">
+      <c r="H188" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I188" s="35">
+      <c r="J188" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="36"/>
-      <c r="B189" s="24"/>
+    <row r="189" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="36"/>
       <c r="C189" s="24"/>
-      <c r="F189" s="27">
+      <c r="D189" s="24"/>
+      <c r="G189" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G189" s="28">
+      <c r="H189" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I189" s="35">
+      <c r="J189" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="36"/>
-      <c r="B190" s="24"/>
+    <row r="190" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="36"/>
       <c r="C190" s="24"/>
-      <c r="F190" s="27">
+      <c r="D190" s="24"/>
+      <c r="G190" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G190" s="28">
+      <c r="H190" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I190" s="35">
+      <c r="J190" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="36"/>
-      <c r="B191" s="24"/>
+    <row r="191" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="36"/>
       <c r="C191" s="24"/>
-      <c r="F191" s="27">
+      <c r="D191" s="24"/>
+      <c r="G191" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G191" s="28">
+      <c r="H191" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I191" s="35">
+      <c r="J191" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="36"/>
-      <c r="B192" s="24"/>
+    <row r="192" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="36"/>
       <c r="C192" s="24"/>
-      <c r="F192" s="27">
+      <c r="D192" s="24"/>
+      <c r="G192" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G192" s="28">
+      <c r="H192" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I192" s="35">
+      <c r="J192" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="36"/>
-      <c r="B193" s="24"/>
+    <row r="193" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="36"/>
       <c r="C193" s="24"/>
-      <c r="F193" s="27">
+      <c r="D193" s="24"/>
+      <c r="G193" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G193" s="28">
+      <c r="H193" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I193" s="35">
+      <c r="J193" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="36"/>
-      <c r="B194" s="24"/>
+    <row r="194" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="36"/>
       <c r="C194" s="24"/>
-      <c r="F194" s="27">
+      <c r="D194" s="24"/>
+      <c r="G194" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G194" s="28">
+      <c r="H194" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I194" s="35">
+      <c r="J194" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="36"/>
-      <c r="B195" s="24"/>
+    <row r="195" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="36"/>
       <c r="C195" s="24"/>
-      <c r="F195" s="27">
+      <c r="D195" s="24"/>
+      <c r="G195" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G195" s="28">
+      <c r="H195" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I195" s="35">
+      <c r="J195" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="36"/>
-      <c r="B196" s="24"/>
+    <row r="196" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="36"/>
       <c r="C196" s="24"/>
-      <c r="F196" s="27">
+      <c r="D196" s="24"/>
+      <c r="G196" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G196" s="28">
+      <c r="H196" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I196" s="35">
+      <c r="J196" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="36"/>
-      <c r="B197" s="24"/>
+    <row r="197" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="36"/>
       <c r="C197" s="24"/>
-      <c r="F197" s="27">
+      <c r="D197" s="24"/>
+      <c r="G197" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G197" s="28">
+      <c r="H197" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I197" s="35">
+      <c r="J197" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="36"/>
-      <c r="B198" s="24"/>
+    <row r="198" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="36"/>
       <c r="C198" s="24"/>
-      <c r="F198" s="27">
+      <c r="D198" s="24"/>
+      <c r="G198" s="27">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G198" s="28">
+      <c r="H198" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I198" s="35">
+      <c r="J198" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="36"/>
-      <c r="B199" s="24"/>
+    <row r="199" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="36"/>
       <c r="C199" s="24"/>
-      <c r="F199" s="27">
-        <f t="shared" ref="F199:F262" si="12">IF(D199&lt;&gt;0,B199/D199,)</f>
-        <v>0</v>
-      </c>
-      <c r="G199" s="28">
-        <f t="shared" ref="G199:G262" si="13">IF(C199&lt;&gt;0,B199/C199,)</f>
-        <v>0</v>
-      </c>
-      <c r="I199" s="35">
-        <f t="shared" ref="I199:I262" si="14">IF( D199&lt;&gt;0,C199/D199,)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="36"/>
-      <c r="B200" s="24"/>
+      <c r="D199" s="24"/>
+      <c r="G199" s="27">
+        <f t="shared" ref="G199:G262" si="12">IF(E199&lt;&gt;0,C199/E199,)</f>
+        <v>0</v>
+      </c>
+      <c r="H199" s="28">
+        <f t="shared" ref="H199:H262" si="13">IF(D199&lt;&gt;0,C199/D199,)</f>
+        <v>0</v>
+      </c>
+      <c r="J199" s="35">
+        <f t="shared" ref="J199:J262" si="14">IF( E199&lt;&gt;0,D199/E199,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="36"/>
       <c r="C200" s="24"/>
-      <c r="F200" s="27">
+      <c r="D200" s="24"/>
+      <c r="G200" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G200" s="28">
+      <c r="H200" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I200" s="35">
+      <c r="J200" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="36"/>
-      <c r="B201" s="24"/>
+    <row r="201" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="36"/>
       <c r="C201" s="24"/>
-      <c r="F201" s="27">
+      <c r="D201" s="24"/>
+      <c r="G201" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G201" s="28">
+      <c r="H201" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I201" s="35">
+      <c r="J201" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="36"/>
-      <c r="B202" s="24"/>
+    <row r="202" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="36"/>
       <c r="C202" s="24"/>
-      <c r="F202" s="27">
+      <c r="D202" s="24"/>
+      <c r="G202" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G202" s="28">
+      <c r="H202" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I202" s="35">
+      <c r="J202" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="36"/>
-      <c r="B203" s="24"/>
+    <row r="203" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="36"/>
       <c r="C203" s="24"/>
-      <c r="F203" s="27">
+      <c r="D203" s="24"/>
+      <c r="G203" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G203" s="28">
+      <c r="H203" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I203" s="35">
+      <c r="J203" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="36"/>
-      <c r="B204" s="24"/>
+    <row r="204" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="36"/>
       <c r="C204" s="24"/>
-      <c r="F204" s="27">
+      <c r="D204" s="24"/>
+      <c r="G204" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G204" s="28">
+      <c r="H204" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I204" s="35">
+      <c r="J204" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="36"/>
-      <c r="B205" s="24"/>
+    <row r="205" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="36"/>
       <c r="C205" s="24"/>
-      <c r="F205" s="27">
+      <c r="D205" s="24"/>
+      <c r="G205" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G205" s="28">
+      <c r="H205" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I205" s="35">
+      <c r="J205" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="36"/>
-      <c r="B206" s="24"/>
+    <row r="206" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="36"/>
       <c r="C206" s="24"/>
-      <c r="F206" s="27">
+      <c r="D206" s="24"/>
+      <c r="G206" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G206" s="28">
+      <c r="H206" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I206" s="35">
+      <c r="J206" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="36"/>
-      <c r="B207" s="24"/>
+    <row r="207" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="36"/>
       <c r="C207" s="24"/>
-      <c r="F207" s="27">
+      <c r="D207" s="24"/>
+      <c r="G207" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G207" s="28">
+      <c r="H207" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I207" s="35">
+      <c r="J207" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="36"/>
-      <c r="B208" s="24"/>
+    <row r="208" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="36"/>
       <c r="C208" s="24"/>
-      <c r="F208" s="27">
+      <c r="D208" s="24"/>
+      <c r="G208" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G208" s="28">
+      <c r="H208" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I208" s="35">
+      <c r="J208" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="36"/>
-      <c r="B209" s="24"/>
+    <row r="209" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="36"/>
       <c r="C209" s="24"/>
-      <c r="F209" s="27">
+      <c r="D209" s="24"/>
+      <c r="G209" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G209" s="28">
+      <c r="H209" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I209" s="35">
+      <c r="J209" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="36"/>
-      <c r="B210" s="24"/>
+    <row r="210" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="36"/>
       <c r="C210" s="24"/>
-      <c r="F210" s="27">
+      <c r="D210" s="24"/>
+      <c r="G210" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G210" s="28">
+      <c r="H210" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I210" s="35">
+      <c r="J210" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="36"/>
-      <c r="B211" s="24"/>
+    <row r="211" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="36"/>
       <c r="C211" s="24"/>
-      <c r="F211" s="27">
+      <c r="D211" s="24"/>
+      <c r="G211" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G211" s="28">
+      <c r="H211" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I211" s="35">
+      <c r="J211" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="36"/>
-      <c r="B212" s="24"/>
+    <row r="212" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="36"/>
       <c r="C212" s="24"/>
-      <c r="F212" s="27">
+      <c r="D212" s="24"/>
+      <c r="G212" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G212" s="28">
+      <c r="H212" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I212" s="35">
+      <c r="J212" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="36"/>
-      <c r="B213" s="24"/>
+    <row r="213" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="36"/>
       <c r="C213" s="24"/>
-      <c r="F213" s="27">
+      <c r="D213" s="24"/>
+      <c r="G213" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G213" s="28">
+      <c r="H213" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I213" s="35">
+      <c r="J213" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="36"/>
-      <c r="B214" s="24"/>
+    <row r="214" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="36"/>
       <c r="C214" s="24"/>
-      <c r="F214" s="27">
+      <c r="D214" s="24"/>
+      <c r="G214" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G214" s="28">
+      <c r="H214" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I214" s="35">
+      <c r="J214" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="36"/>
-      <c r="B215" s="24"/>
+    <row r="215" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="36"/>
       <c r="C215" s="24"/>
-      <c r="F215" s="27">
+      <c r="D215" s="24"/>
+      <c r="G215" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G215" s="28">
+      <c r="H215" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I215" s="35">
+      <c r="J215" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="36"/>
-      <c r="B216" s="24"/>
+    <row r="216" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="36"/>
       <c r="C216" s="24"/>
-      <c r="F216" s="27">
+      <c r="D216" s="24"/>
+      <c r="G216" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G216" s="28">
+      <c r="H216" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I216" s="35">
+      <c r="J216" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="36"/>
-      <c r="B217" s="24"/>
+    <row r="217" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="36"/>
       <c r="C217" s="24"/>
-      <c r="F217" s="27">
+      <c r="D217" s="24"/>
+      <c r="G217" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G217" s="28">
+      <c r="H217" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I217" s="35">
+      <c r="J217" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="36"/>
-      <c r="B218" s="24"/>
+    <row r="218" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="36"/>
       <c r="C218" s="24"/>
-      <c r="F218" s="27">
+      <c r="D218" s="24"/>
+      <c r="G218" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G218" s="28">
+      <c r="H218" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I218" s="35">
+      <c r="J218" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="36"/>
-      <c r="B219" s="24"/>
+    <row r="219" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="36"/>
       <c r="C219" s="24"/>
-      <c r="F219" s="27">
+      <c r="D219" s="24"/>
+      <c r="G219" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G219" s="28">
+      <c r="H219" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I219" s="35">
+      <c r="J219" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="36"/>
-      <c r="B220" s="24"/>
+    <row r="220" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="36"/>
       <c r="C220" s="24"/>
-      <c r="F220" s="27">
+      <c r="D220" s="24"/>
+      <c r="G220" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G220" s="28">
+      <c r="H220" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I220" s="35">
+      <c r="J220" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="36"/>
-      <c r="B221" s="24"/>
+    <row r="221" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="36"/>
       <c r="C221" s="24"/>
-      <c r="F221" s="27">
+      <c r="D221" s="24"/>
+      <c r="G221" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G221" s="28">
+      <c r="H221" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I221" s="35">
+      <c r="J221" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="36"/>
-      <c r="B222" s="24"/>
+    <row r="222" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="36"/>
       <c r="C222" s="24"/>
-      <c r="F222" s="27">
+      <c r="D222" s="24"/>
+      <c r="G222" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G222" s="28">
+      <c r="H222" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I222" s="35">
+      <c r="J222" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="36"/>
-      <c r="B223" s="24"/>
+    <row r="223" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="36"/>
       <c r="C223" s="24"/>
-      <c r="F223" s="27">
+      <c r="D223" s="24"/>
+      <c r="G223" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G223" s="28">
+      <c r="H223" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I223" s="35">
+      <c r="J223" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="36"/>
-      <c r="B224" s="24"/>
+    <row r="224" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="36"/>
       <c r="C224" s="24"/>
-      <c r="F224" s="27">
+      <c r="D224" s="24"/>
+      <c r="G224" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G224" s="28">
+      <c r="H224" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I224" s="35">
+      <c r="J224" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="36"/>
-      <c r="B225" s="24"/>
+    <row r="225" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="36"/>
       <c r="C225" s="24"/>
-      <c r="F225" s="27">
+      <c r="D225" s="24"/>
+      <c r="G225" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G225" s="28">
+      <c r="H225" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I225" s="35">
+      <c r="J225" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="36"/>
-      <c r="B226" s="24"/>
+    <row r="226" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="36"/>
       <c r="C226" s="24"/>
-      <c r="F226" s="27">
+      <c r="D226" s="24"/>
+      <c r="G226" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G226" s="28">
+      <c r="H226" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I226" s="35">
+      <c r="J226" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="36"/>
-      <c r="B227" s="24"/>
+    <row r="227" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="36"/>
       <c r="C227" s="24"/>
-      <c r="F227" s="27">
+      <c r="D227" s="24"/>
+      <c r="G227" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G227" s="28">
+      <c r="H227" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I227" s="35">
+      <c r="J227" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="36"/>
-      <c r="B228" s="24"/>
+    <row r="228" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="36"/>
       <c r="C228" s="24"/>
-      <c r="F228" s="27">
+      <c r="D228" s="24"/>
+      <c r="G228" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G228" s="28">
+      <c r="H228" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I228" s="35">
+      <c r="J228" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="36"/>
-      <c r="B229" s="24"/>
+    <row r="229" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="36"/>
       <c r="C229" s="24"/>
-      <c r="F229" s="27">
+      <c r="D229" s="24"/>
+      <c r="G229" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G229" s="28">
+      <c r="H229" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I229" s="35">
+      <c r="J229" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="36"/>
-      <c r="B230" s="24"/>
+    <row r="230" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="36"/>
       <c r="C230" s="24"/>
-      <c r="F230" s="27">
+      <c r="D230" s="24"/>
+      <c r="G230" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G230" s="28">
+      <c r="H230" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I230" s="35">
+      <c r="J230" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="36"/>
-      <c r="B231" s="24"/>
+    <row r="231" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="36"/>
       <c r="C231" s="24"/>
-      <c r="F231" s="27">
+      <c r="D231" s="24"/>
+      <c r="G231" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G231" s="28">
+      <c r="H231" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I231" s="35">
+      <c r="J231" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="36"/>
-      <c r="B232" s="24"/>
+    <row r="232" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="36"/>
       <c r="C232" s="24"/>
-      <c r="F232" s="27">
+      <c r="D232" s="24"/>
+      <c r="G232" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G232" s="28">
+      <c r="H232" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I232" s="35">
+      <c r="J232" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="36"/>
-      <c r="B233" s="24"/>
+    <row r="233" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="36"/>
       <c r="C233" s="24"/>
-      <c r="F233" s="27">
+      <c r="D233" s="24"/>
+      <c r="G233" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G233" s="28">
+      <c r="H233" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I233" s="35">
+      <c r="J233" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="36"/>
-      <c r="B234" s="24"/>
+    <row r="234" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="36"/>
       <c r="C234" s="24"/>
-      <c r="F234" s="27">
+      <c r="D234" s="24"/>
+      <c r="G234" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G234" s="28">
+      <c r="H234" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I234" s="35">
+      <c r="J234" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="36"/>
-      <c r="B235" s="24"/>
+    <row r="235" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="36"/>
       <c r="C235" s="24"/>
-      <c r="F235" s="27">
+      <c r="D235" s="24"/>
+      <c r="G235" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G235" s="28">
+      <c r="H235" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I235" s="35">
+      <c r="J235" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="36"/>
-      <c r="B236" s="24"/>
+    <row r="236" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="36"/>
       <c r="C236" s="24"/>
-      <c r="F236" s="27">
+      <c r="D236" s="24"/>
+      <c r="G236" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G236" s="28">
+      <c r="H236" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I236" s="35">
+      <c r="J236" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="36"/>
-      <c r="B237" s="24"/>
+    <row r="237" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="36"/>
       <c r="C237" s="24"/>
-      <c r="F237" s="27">
+      <c r="D237" s="24"/>
+      <c r="G237" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G237" s="28">
+      <c r="H237" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I237" s="35">
+      <c r="J237" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="36"/>
-      <c r="B238" s="24"/>
+    <row r="238" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="36"/>
       <c r="C238" s="24"/>
-      <c r="F238" s="27">
+      <c r="D238" s="24"/>
+      <c r="G238" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G238" s="28">
+      <c r="H238" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I238" s="35">
+      <c r="J238" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="36"/>
-      <c r="B239" s="24"/>
+    <row r="239" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="36"/>
       <c r="C239" s="24"/>
-      <c r="F239" s="27">
+      <c r="D239" s="24"/>
+      <c r="G239" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G239" s="28">
+      <c r="H239" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I239" s="35">
+      <c r="J239" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="36"/>
-      <c r="B240" s="24"/>
+    <row r="240" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="36"/>
       <c r="C240" s="24"/>
-      <c r="F240" s="27">
+      <c r="D240" s="24"/>
+      <c r="G240" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G240" s="28">
+      <c r="H240" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I240" s="35">
+      <c r="J240" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="36"/>
-      <c r="B241" s="24"/>
+    <row r="241" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="36"/>
       <c r="C241" s="24"/>
-      <c r="F241" s="27">
+      <c r="D241" s="24"/>
+      <c r="G241" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G241" s="28">
+      <c r="H241" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I241" s="35">
+      <c r="J241" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="36"/>
-      <c r="B242" s="24"/>
+    <row r="242" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="36"/>
       <c r="C242" s="24"/>
-      <c r="F242" s="27">
+      <c r="D242" s="24"/>
+      <c r="G242" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G242" s="28">
+      <c r="H242" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I242" s="35">
+      <c r="J242" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="36"/>
-      <c r="B243" s="24"/>
+    <row r="243" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="36"/>
       <c r="C243" s="24"/>
-      <c r="F243" s="27">
+      <c r="D243" s="24"/>
+      <c r="G243" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G243" s="28">
+      <c r="H243" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I243" s="35">
+      <c r="J243" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="36"/>
-      <c r="B244" s="24"/>
+    <row r="244" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="36"/>
       <c r="C244" s="24"/>
-      <c r="F244" s="27">
+      <c r="D244" s="24"/>
+      <c r="G244" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G244" s="28">
+      <c r="H244" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I244" s="35">
+      <c r="J244" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="36"/>
-      <c r="B245" s="24"/>
+    <row r="245" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="36"/>
       <c r="C245" s="24"/>
-      <c r="F245" s="27">
+      <c r="D245" s="24"/>
+      <c r="G245" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G245" s="28">
+      <c r="H245" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I245" s="35">
+      <c r="J245" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="36"/>
-      <c r="B246" s="24"/>
+    <row r="246" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="36"/>
       <c r="C246" s="24"/>
-      <c r="F246" s="27">
+      <c r="D246" s="24"/>
+      <c r="G246" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G246" s="28">
+      <c r="H246" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I246" s="35">
+      <c r="J246" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="36"/>
-      <c r="B247" s="24"/>
+    <row r="247" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="36"/>
       <c r="C247" s="24"/>
-      <c r="F247" s="27">
+      <c r="D247" s="24"/>
+      <c r="G247" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G247" s="28">
+      <c r="H247" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I247" s="35">
+      <c r="J247" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="36"/>
-      <c r="B248" s="24"/>
+    <row r="248" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="36"/>
       <c r="C248" s="24"/>
-      <c r="F248" s="27">
+      <c r="D248" s="24"/>
+      <c r="G248" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G248" s="28">
+      <c r="H248" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I248" s="35">
+      <c r="J248" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="36"/>
-      <c r="B249" s="24"/>
+    <row r="249" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="36"/>
       <c r="C249" s="24"/>
-      <c r="F249" s="27">
+      <c r="D249" s="24"/>
+      <c r="G249" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G249" s="28">
+      <c r="H249" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I249" s="35">
+      <c r="J249" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="36"/>
-      <c r="B250" s="24"/>
+    <row r="250" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="36"/>
       <c r="C250" s="24"/>
-      <c r="F250" s="27">
+      <c r="D250" s="24"/>
+      <c r="G250" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G250" s="28">
+      <c r="H250" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I250" s="35">
+      <c r="J250" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="36"/>
-      <c r="B251" s="24"/>
+    <row r="251" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="36"/>
       <c r="C251" s="24"/>
-      <c r="F251" s="27">
+      <c r="D251" s="24"/>
+      <c r="G251" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G251" s="28">
+      <c r="H251" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I251" s="35">
+      <c r="J251" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="36"/>
-      <c r="B252" s="24"/>
+    <row r="252" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="36"/>
       <c r="C252" s="24"/>
-      <c r="F252" s="27">
+      <c r="D252" s="24"/>
+      <c r="G252" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G252" s="28">
+      <c r="H252" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I252" s="35">
+      <c r="J252" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="36"/>
-      <c r="B253" s="24"/>
+    <row r="253" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="36"/>
       <c r="C253" s="24"/>
-      <c r="F253" s="27">
+      <c r="D253" s="24"/>
+      <c r="G253" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G253" s="28">
+      <c r="H253" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I253" s="35">
+      <c r="J253" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="36"/>
-      <c r="B254" s="24"/>
+    <row r="254" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="36"/>
       <c r="C254" s="24"/>
-      <c r="F254" s="27">
+      <c r="D254" s="24"/>
+      <c r="G254" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G254" s="28">
+      <c r="H254" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I254" s="35">
+      <c r="J254" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="36"/>
-      <c r="B255" s="24"/>
+    <row r="255" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="36"/>
       <c r="C255" s="24"/>
-      <c r="F255" s="27">
+      <c r="D255" s="24"/>
+      <c r="G255" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G255" s="28">
+      <c r="H255" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I255" s="35">
+      <c r="J255" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="36"/>
-      <c r="B256" s="24"/>
+    <row r="256" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="36"/>
       <c r="C256" s="24"/>
-      <c r="F256" s="27">
+      <c r="D256" s="24"/>
+      <c r="G256" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G256" s="28">
+      <c r="H256" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I256" s="35">
+      <c r="J256" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="36"/>
-      <c r="B257" s="24"/>
+    <row r="257" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="36"/>
       <c r="C257" s="24"/>
-      <c r="F257" s="27">
+      <c r="D257" s="24"/>
+      <c r="G257" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G257" s="28">
+      <c r="H257" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I257" s="35">
+      <c r="J257" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="36"/>
-      <c r="B258" s="24"/>
+    <row r="258" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="36"/>
       <c r="C258" s="24"/>
-      <c r="F258" s="27">
+      <c r="D258" s="24"/>
+      <c r="G258" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G258" s="28">
+      <c r="H258" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I258" s="35">
+      <c r="J258" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="36"/>
-      <c r="B259" s="24"/>
+    <row r="259" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="36"/>
       <c r="C259" s="24"/>
-      <c r="F259" s="27">
+      <c r="D259" s="24"/>
+      <c r="G259" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G259" s="28">
+      <c r="H259" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I259" s="35">
+      <c r="J259" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="36"/>
-      <c r="B260" s="24"/>
+    <row r="260" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="36"/>
       <c r="C260" s="24"/>
-      <c r="F260" s="27">
+      <c r="D260" s="24"/>
+      <c r="G260" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G260" s="28">
+      <c r="H260" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I260" s="35">
+      <c r="J260" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="36"/>
-      <c r="B261" s="24"/>
+    <row r="261" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="36"/>
       <c r="C261" s="24"/>
-      <c r="F261" s="27">
+      <c r="D261" s="24"/>
+      <c r="G261" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G261" s="28">
+      <c r="H261" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I261" s="35">
+      <c r="J261" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="36"/>
-      <c r="B262" s="24"/>
+    <row r="262" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="36"/>
       <c r="C262" s="24"/>
-      <c r="F262" s="27">
+      <c r="D262" s="24"/>
+      <c r="G262" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G262" s="28">
+      <c r="H262" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I262" s="35">
+      <c r="J262" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="36"/>
-      <c r="B263" s="24"/>
+    <row r="263" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="36"/>
       <c r="C263" s="24"/>
-      <c r="F263" s="27">
-        <f t="shared" ref="F263:F300" si="15">IF(D263&lt;&gt;0,B263/D263,)</f>
-        <v>0</v>
-      </c>
-      <c r="G263" s="28">
-        <f t="shared" ref="G263:G300" si="16">IF(C263&lt;&gt;0,B263/C263,)</f>
-        <v>0</v>
-      </c>
-      <c r="I263" s="35">
-        <f t="shared" ref="I263:I300" si="17">IF( D263&lt;&gt;0,C263/D263,)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="36"/>
-      <c r="B264" s="24"/>
+      <c r="D263" s="24"/>
+      <c r="G263" s="27">
+        <f t="shared" ref="G263:G300" si="15">IF(E263&lt;&gt;0,C263/E263,)</f>
+        <v>0</v>
+      </c>
+      <c r="H263" s="28">
+        <f t="shared" ref="H263:H300" si="16">IF(D263&lt;&gt;0,C263/D263,)</f>
+        <v>0</v>
+      </c>
+      <c r="J263" s="35">
+        <f t="shared" ref="J263:J300" si="17">IF( E263&lt;&gt;0,D263/E263,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="36"/>
       <c r="C264" s="24"/>
-      <c r="F264" s="27">
+      <c r="D264" s="24"/>
+      <c r="G264" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G264" s="28">
+      <c r="H264" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I264" s="35">
+      <c r="J264" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="36"/>
-      <c r="B265" s="24"/>
+    <row r="265" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="36"/>
       <c r="C265" s="24"/>
-      <c r="F265" s="27">
+      <c r="D265" s="24"/>
+      <c r="G265" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G265" s="28">
+      <c r="H265" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I265" s="35">
+      <c r="J265" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="36"/>
-      <c r="B266" s="24"/>
+    <row r="266" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="36"/>
       <c r="C266" s="24"/>
-      <c r="F266" s="27">
+      <c r="D266" s="24"/>
+      <c r="G266" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G266" s="28">
+      <c r="H266" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I266" s="35">
+      <c r="J266" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="36"/>
-      <c r="B267" s="24"/>
+    <row r="267" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="36"/>
       <c r="C267" s="24"/>
-      <c r="F267" s="27">
+      <c r="D267" s="24"/>
+      <c r="G267" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G267" s="28">
+      <c r="H267" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I267" s="35">
+      <c r="J267" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="36"/>
-      <c r="B268" s="24"/>
+    <row r="268" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="36"/>
       <c r="C268" s="24"/>
-      <c r="F268" s="27">
+      <c r="D268" s="24"/>
+      <c r="G268" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G268" s="28">
+      <c r="H268" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I268" s="35">
+      <c r="J268" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="36"/>
-      <c r="B269" s="24"/>
+    <row r="269" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="36"/>
       <c r="C269" s="24"/>
-      <c r="F269" s="27">
+      <c r="D269" s="24"/>
+      <c r="G269" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G269" s="28">
+      <c r="H269" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I269" s="35">
+      <c r="J269" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="36"/>
-      <c r="B270" s="24"/>
+    <row r="270" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="36"/>
       <c r="C270" s="24"/>
-      <c r="F270" s="27">
+      <c r="D270" s="24"/>
+      <c r="G270" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G270" s="28">
+      <c r="H270" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I270" s="35">
+      <c r="J270" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="36"/>
-      <c r="B271" s="24"/>
+    <row r="271" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="36"/>
       <c r="C271" s="24"/>
-      <c r="F271" s="27">
+      <c r="D271" s="24"/>
+      <c r="G271" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G271" s="28">
+      <c r="H271" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I271" s="35">
+      <c r="J271" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="36"/>
-      <c r="B272" s="24"/>
+    <row r="272" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="36"/>
       <c r="C272" s="24"/>
-      <c r="F272" s="27">
+      <c r="D272" s="24"/>
+      <c r="G272" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G272" s="28">
+      <c r="H272" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I272" s="35">
+      <c r="J272" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="36"/>
-      <c r="B273" s="24"/>
+    <row r="273" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="36"/>
       <c r="C273" s="24"/>
-      <c r="F273" s="27">
+      <c r="D273" s="24"/>
+      <c r="G273" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G273" s="28">
+      <c r="H273" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I273" s="35">
+      <c r="J273" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="36"/>
-      <c r="B274" s="24"/>
+    <row r="274" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="36"/>
       <c r="C274" s="24"/>
-      <c r="F274" s="27">
+      <c r="D274" s="24"/>
+      <c r="G274" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G274" s="28">
+      <c r="H274" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I274" s="35">
+      <c r="J274" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="36"/>
-      <c r="B275" s="24"/>
+    <row r="275" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="36"/>
       <c r="C275" s="24"/>
-      <c r="F275" s="27">
+      <c r="D275" s="24"/>
+      <c r="G275" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G275" s="28">
+      <c r="H275" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I275" s="35">
+      <c r="J275" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="36"/>
-      <c r="B276" s="24"/>
+    <row r="276" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="36"/>
       <c r="C276" s="24"/>
-      <c r="F276" s="27">
+      <c r="D276" s="24"/>
+      <c r="G276" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G276" s="28">
+      <c r="H276" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I276" s="35">
+      <c r="J276" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="36"/>
-      <c r="B277" s="24"/>
+    <row r="277" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="36"/>
       <c r="C277" s="24"/>
-      <c r="F277" s="27">
+      <c r="D277" s="24"/>
+      <c r="G277" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G277" s="28">
+      <c r="H277" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I277" s="35">
+      <c r="J277" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="36"/>
-      <c r="B278" s="24"/>
+    <row r="278" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="36"/>
       <c r="C278" s="24"/>
-      <c r="F278" s="27">
+      <c r="D278" s="24"/>
+      <c r="G278" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G278" s="28">
+      <c r="H278" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I278" s="35">
+      <c r="J278" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="36"/>
-      <c r="B279" s="24"/>
+    <row r="279" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="36"/>
       <c r="C279" s="24"/>
-      <c r="F279" s="27">
+      <c r="D279" s="24"/>
+      <c r="G279" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G279" s="28">
+      <c r="H279" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I279" s="35">
+      <c r="J279" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="36"/>
-      <c r="B280" s="24"/>
+    <row r="280" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="36"/>
       <c r="C280" s="24"/>
-      <c r="F280" s="27">
+      <c r="D280" s="24"/>
+      <c r="G280" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G280" s="28">
+      <c r="H280" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I280" s="35">
+      <c r="J280" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="36"/>
-      <c r="B281" s="24"/>
+    <row r="281" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="36"/>
       <c r="C281" s="24"/>
-      <c r="F281" s="27">
+      <c r="D281" s="24"/>
+      <c r="G281" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G281" s="28">
+      <c r="H281" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I281" s="35">
+      <c r="J281" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="36"/>
-      <c r="B282" s="24"/>
+    <row r="282" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="36"/>
       <c r="C282" s="24"/>
-      <c r="F282" s="27">
+      <c r="D282" s="24"/>
+      <c r="G282" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G282" s="28">
+      <c r="H282" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I282" s="35">
+      <c r="J282" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="36"/>
-      <c r="B283" s="24"/>
+    <row r="283" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="36"/>
       <c r="C283" s="24"/>
-      <c r="F283" s="27">
+      <c r="D283" s="24"/>
+      <c r="G283" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G283" s="28">
+      <c r="H283" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I283" s="35">
+      <c r="J283" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="36"/>
-      <c r="B284" s="24"/>
+    <row r="284" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="36"/>
       <c r="C284" s="24"/>
-      <c r="F284" s="27">
+      <c r="D284" s="24"/>
+      <c r="G284" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G284" s="28">
+      <c r="H284" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I284" s="35">
+      <c r="J284" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="36"/>
-      <c r="B285" s="24"/>
+    <row r="285" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="36"/>
       <c r="C285" s="24"/>
-      <c r="F285" s="27">
+      <c r="D285" s="24"/>
+      <c r="G285" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G285" s="28">
+      <c r="H285" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I285" s="35">
+      <c r="J285" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="36"/>
-      <c r="B286" s="24"/>
+    <row r="286" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="36"/>
       <c r="C286" s="24"/>
-      <c r="F286" s="27">
+      <c r="D286" s="24"/>
+      <c r="G286" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G286" s="28">
+      <c r="H286" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I286" s="35">
+      <c r="J286" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="36"/>
-      <c r="B287" s="24"/>
+    <row r="287" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="36"/>
       <c r="C287" s="24"/>
-      <c r="F287" s="27">
+      <c r="D287" s="24"/>
+      <c r="G287" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G287" s="28">
+      <c r="H287" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I287" s="35">
+      <c r="J287" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="36"/>
-      <c r="B288" s="24"/>
+    <row r="288" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="36"/>
       <c r="C288" s="24"/>
-      <c r="F288" s="27">
+      <c r="D288" s="24"/>
+      <c r="G288" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G288" s="28">
+      <c r="H288" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I288" s="35">
+      <c r="J288" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="36"/>
-      <c r="B289" s="24"/>
+    <row r="289" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="36"/>
       <c r="C289" s="24"/>
-      <c r="F289" s="27">
+      <c r="D289" s="24"/>
+      <c r="G289" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G289" s="28">
+      <c r="H289" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I289" s="35">
+      <c r="J289" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="36"/>
-      <c r="B290" s="24"/>
+    <row r="290" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="36"/>
       <c r="C290" s="24"/>
-      <c r="F290" s="27">
+      <c r="D290" s="24"/>
+      <c r="G290" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G290" s="28">
+      <c r="H290" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I290" s="35">
+      <c r="J290" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="36"/>
-      <c r="B291" s="24"/>
+    <row r="291" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="36"/>
       <c r="C291" s="24"/>
-      <c r="F291" s="27">
+      <c r="D291" s="24"/>
+      <c r="G291" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G291" s="28">
+      <c r="H291" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I291" s="35">
+      <c r="J291" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="36"/>
-      <c r="B292" s="24"/>
+    <row r="292" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="36"/>
       <c r="C292" s="24"/>
-      <c r="F292" s="27">
+      <c r="D292" s="24"/>
+      <c r="G292" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G292" s="28">
+      <c r="H292" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I292" s="35">
+      <c r="J292" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="36"/>
-      <c r="B293" s="24"/>
+    <row r="293" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="36"/>
       <c r="C293" s="24"/>
-      <c r="F293" s="27">
+      <c r="D293" s="24"/>
+      <c r="G293" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G293" s="28">
+      <c r="H293" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I293" s="35">
+      <c r="J293" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="36"/>
-      <c r="B294" s="24"/>
+    <row r="294" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="36"/>
       <c r="C294" s="24"/>
-      <c r="F294" s="27">
+      <c r="D294" s="24"/>
+      <c r="G294" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G294" s="28">
+      <c r="H294" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I294" s="35">
+      <c r="J294" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="36"/>
-      <c r="B295" s="24"/>
+    <row r="295" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="36"/>
       <c r="C295" s="24"/>
-      <c r="F295" s="27">
+      <c r="D295" s="24"/>
+      <c r="G295" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G295" s="28">
+      <c r="H295" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I295" s="35">
+      <c r="J295" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="36"/>
-      <c r="B296" s="24"/>
+    <row r="296" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="36"/>
       <c r="C296" s="24"/>
-      <c r="F296" s="27">
+      <c r="D296" s="24"/>
+      <c r="G296" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G296" s="28">
+      <c r="H296" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I296" s="35">
+      <c r="J296" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="36"/>
-      <c r="B297" s="24"/>
+    <row r="297" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="36"/>
       <c r="C297" s="24"/>
-      <c r="F297" s="27">
+      <c r="D297" s="24"/>
+      <c r="G297" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G297" s="28">
+      <c r="H297" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I297" s="35">
+      <c r="J297" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="36"/>
-      <c r="B298" s="24"/>
+    <row r="298" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="36"/>
       <c r="C298" s="24"/>
-      <c r="F298" s="27">
+      <c r="D298" s="24"/>
+      <c r="G298" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G298" s="28">
+      <c r="H298" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I298" s="35">
+      <c r="J298" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="36"/>
-      <c r="B299" s="24"/>
+    <row r="299" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="36"/>
       <c r="C299" s="24"/>
-      <c r="F299" s="27">
+      <c r="D299" s="24"/>
+      <c r="G299" s="27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G299" s="28">
+      <c r="H299" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I299" s="35">
+      <c r="J299" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="37"/>
-      <c r="B300" s="38"/>
+    <row r="300" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="37"/>
       <c r="C300" s="38"/>
       <c r="D300" s="38"/>
-      <c r="E300" s="39"/>
-      <c r="F300" s="40">
+      <c r="E300" s="38"/>
+      <c r="F300" s="39"/>
+      <c r="G300" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G300" s="39">
+      <c r="H300" s="39">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H300" s="39"/>
-      <c r="I300" s="41">
+      <c r="I300" s="39"/>
+      <c r="J300" s="41">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="24"/>
+    <row r="301" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="24"/>
       <c r="C301" s="24"/>
-      <c r="E301" s="29"/>
+      <c r="D301" s="24"/>
       <c r="F301" s="29"/>
       <c r="G301" s="29"/>
       <c r="H301" s="29"/>
       <c r="I301" s="29"/>
+      <c r="J301" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
@@ -8081,7 +8098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/moto2020.xlsx
+++ b/moto2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>km</t>
   </si>
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>Total dia</t>
+  </si>
+  <si>
+    <t>cubo tras</t>
+  </si>
+  <si>
+    <t>raios traseiros</t>
+  </si>
+  <si>
+    <t>troca</t>
+  </si>
+  <si>
+    <t>rolamentos roda tras</t>
+  </si>
+  <si>
+    <t>pastilha freio diant</t>
   </si>
 </sst>
 </file>
@@ -571,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -671,6 +686,8 @@
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6443,7 +6460,7 @@
   <dimension ref="A2:U105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8096,83 +8113,146 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J100"/>
+  <dimension ref="A2:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H3">
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C3">
         <v>63764</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G4">
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4">
         <v>79581</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H5">
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5">
         <v>81021</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H9">
-        <f>H5-H3</f>
-        <v>17257</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D10">
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>118361</v>
       </c>
-      <c r="E10">
-        <v>118361</v>
-      </c>
-    </row>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61">
+        <v>43898</v>
+      </c>
+      <c r="B7">
+        <v>440</v>
+      </c>
+      <c r="C7">
+        <v>124301</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>170</v>
+      </c>
+      <c r="N7">
+        <v>70</v>
+      </c>
+      <c r="O7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8249,12 +8329,8 @@
     <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>